--- a/030-試験/032-結合試験計画書兼結果書（テンプレート）.xlsx
+++ b/030-試験/032-結合試験計画書兼結果書（テンプレート）.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soichirouryu\Desktop\03_システム開発演習\030-試験\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\030-試験\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E299948-9D44-40C8-9051-4E5FE9D054B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="96" windowWidth="7656" windowHeight="8628" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結合試験_Servlet" sheetId="28" r:id="rId1"/>
     <sheet name="結合試験_BO" sheetId="29" r:id="rId2"/>
     <sheet name="結合試験_DAO" sheetId="30" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -412,7 +424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1036,6 +1048,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,65 +1162,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_機能一覧_テンプレート" xfId="1"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="2"/>
+    <cellStyle name="標準_機能一覧_テンプレート" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1540,11 +1552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY361"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -1555,192 +1567,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="61" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="61" t="s">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="76"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="48" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="49" t="s">
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="48" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="79"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="65"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
       <c r="W4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51" t="s">
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51" t="s">
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
     </row>
     <row r="5" spans="1:51" ht="10.5" customHeight="1">
       <c r="A5" s="23">
@@ -1790,14 +1802,14 @@
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="6"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="73"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="59"/>
     </row>
     <row r="6" spans="1:51" ht="10.5" customHeight="1">
       <c r="A6" s="25"/>
@@ -20756,17 +20768,723 @@
       <c r="AO361" s="18"/>
       <c r="AP361" s="18"/>
       <c r="AQ361" s="19"/>
-      <c r="AR361" s="80"/>
-      <c r="AS361" s="81"/>
-      <c r="AT361" s="81"/>
-      <c r="AU361" s="82"/>
-      <c r="AV361" s="83"/>
-      <c r="AW361" s="84"/>
-      <c r="AX361" s="84"/>
-      <c r="AY361" s="85"/>
+      <c r="AR361" s="48"/>
+      <c r="AS361" s="49"/>
+      <c r="AT361" s="49"/>
+      <c r="AU361" s="50"/>
+      <c r="AV361" s="51"/>
+      <c r="AW361" s="52"/>
+      <c r="AX361" s="52"/>
+      <c r="AY361" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="730">
+    <mergeCell ref="AR31:AU31"/>
+    <mergeCell ref="AV31:AY31"/>
+    <mergeCell ref="AR32:AU32"/>
+    <mergeCell ref="AV32:AY32"/>
+    <mergeCell ref="AR33:AU33"/>
+    <mergeCell ref="AV33:AY33"/>
+    <mergeCell ref="AV26:AY26"/>
+    <mergeCell ref="AR27:AU27"/>
+    <mergeCell ref="AV27:AY27"/>
+    <mergeCell ref="AR28:AU28"/>
+    <mergeCell ref="AV28:AY28"/>
+    <mergeCell ref="AR29:AU29"/>
+    <mergeCell ref="AV29:AY29"/>
+    <mergeCell ref="AR30:AU30"/>
+    <mergeCell ref="AV30:AY30"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:AY9"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AV11:AY11"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:V4"/>
+    <mergeCell ref="Y4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AV7:AY7"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:AY25"/>
+    <mergeCell ref="AR61:AU61"/>
+    <mergeCell ref="AV61:AY61"/>
+    <mergeCell ref="AR63:AU63"/>
+    <mergeCell ref="AV63:AY63"/>
+    <mergeCell ref="AR64:AU64"/>
+    <mergeCell ref="AV64:AY64"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AV58:AY58"/>
+    <mergeCell ref="AR60:AU60"/>
+    <mergeCell ref="AV60:AY60"/>
+    <mergeCell ref="AR54:AU54"/>
+    <mergeCell ref="AV54:AY54"/>
+    <mergeCell ref="AR55:AU55"/>
+    <mergeCell ref="AV55:AY55"/>
+    <mergeCell ref="AR57:AU57"/>
+    <mergeCell ref="AV57:AY57"/>
+    <mergeCell ref="AR36:AU36"/>
+    <mergeCell ref="AV36:AY36"/>
+    <mergeCell ref="AR37:AU37"/>
+    <mergeCell ref="AV37:AY37"/>
+    <mergeCell ref="AR38:AU38"/>
+    <mergeCell ref="AV38:AY38"/>
+    <mergeCell ref="AR34:AU34"/>
+    <mergeCell ref="AV34:AY34"/>
+    <mergeCell ref="AR35:AU35"/>
+    <mergeCell ref="AV35:AY35"/>
+    <mergeCell ref="AR47:AU47"/>
+    <mergeCell ref="AV47:AY47"/>
+    <mergeCell ref="AR42:AU42"/>
+    <mergeCell ref="AV42:AY42"/>
+    <mergeCell ref="AR43:AU43"/>
+    <mergeCell ref="AV43:AY43"/>
+    <mergeCell ref="AR44:AU44"/>
+    <mergeCell ref="AV44:AY44"/>
+    <mergeCell ref="AR39:AU39"/>
+    <mergeCell ref="AV39:AY39"/>
+    <mergeCell ref="AR40:AU40"/>
+    <mergeCell ref="AV40:AY40"/>
+    <mergeCell ref="AR41:AU41"/>
+    <mergeCell ref="AV41:AY41"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:AY45"/>
+    <mergeCell ref="AR46:AU46"/>
+    <mergeCell ref="AV46:AY46"/>
+    <mergeCell ref="AR62:AU62"/>
+    <mergeCell ref="AV62:AY62"/>
+    <mergeCell ref="AR68:AU68"/>
+    <mergeCell ref="AV68:AY68"/>
+    <mergeCell ref="AR360:AU360"/>
+    <mergeCell ref="AV360:AY360"/>
+    <mergeCell ref="AR361:AU361"/>
+    <mergeCell ref="AV361:AY361"/>
+    <mergeCell ref="AR222:AU222"/>
+    <mergeCell ref="AV222:AY222"/>
+    <mergeCell ref="AR223:AU223"/>
+    <mergeCell ref="AV223:AY223"/>
+    <mergeCell ref="AR224:AU224"/>
+    <mergeCell ref="AV224:AY224"/>
+    <mergeCell ref="AR220:AU220"/>
+    <mergeCell ref="AV220:AY220"/>
+    <mergeCell ref="AR221:AU221"/>
+    <mergeCell ref="AV221:AY221"/>
+    <mergeCell ref="AR65:AU65"/>
+    <mergeCell ref="AV65:AY65"/>
+    <mergeCell ref="AR66:AU66"/>
+    <mergeCell ref="AV66:AY66"/>
+    <mergeCell ref="AR67:AU67"/>
+    <mergeCell ref="AV67:AY67"/>
+    <mergeCell ref="AR72:AU72"/>
+    <mergeCell ref="AV72:AY72"/>
+    <mergeCell ref="AR73:AU73"/>
+    <mergeCell ref="AV73:AY73"/>
+    <mergeCell ref="AR74:AU74"/>
+    <mergeCell ref="AV74:AY74"/>
+    <mergeCell ref="AR69:AU69"/>
+    <mergeCell ref="AV69:AY69"/>
+    <mergeCell ref="AR70:AU70"/>
+    <mergeCell ref="AV70:AY70"/>
+    <mergeCell ref="AR71:AU71"/>
+    <mergeCell ref="AV71:AY71"/>
+    <mergeCell ref="AR78:AU78"/>
+    <mergeCell ref="AV78:AY78"/>
+    <mergeCell ref="AR79:AU79"/>
+    <mergeCell ref="AV79:AY79"/>
+    <mergeCell ref="AR80:AU80"/>
+    <mergeCell ref="AV80:AY80"/>
+    <mergeCell ref="AR75:AU75"/>
+    <mergeCell ref="AV75:AY75"/>
+    <mergeCell ref="AR76:AU76"/>
+    <mergeCell ref="AV76:AY76"/>
+    <mergeCell ref="AR77:AU77"/>
+    <mergeCell ref="AV77:AY77"/>
+    <mergeCell ref="AR84:AU84"/>
+    <mergeCell ref="AV84:AY84"/>
+    <mergeCell ref="AR85:AU85"/>
+    <mergeCell ref="AV85:AY85"/>
+    <mergeCell ref="AR86:AU86"/>
+    <mergeCell ref="AV86:AY86"/>
+    <mergeCell ref="AR81:AU81"/>
+    <mergeCell ref="AV81:AY81"/>
+    <mergeCell ref="AR82:AU82"/>
+    <mergeCell ref="AV82:AY82"/>
+    <mergeCell ref="AR83:AU83"/>
+    <mergeCell ref="AV83:AY83"/>
+    <mergeCell ref="AR90:AU90"/>
+    <mergeCell ref="AV90:AY90"/>
+    <mergeCell ref="AR91:AU91"/>
+    <mergeCell ref="AV91:AY91"/>
+    <mergeCell ref="AR92:AU92"/>
+    <mergeCell ref="AV92:AY92"/>
+    <mergeCell ref="AR87:AU87"/>
+    <mergeCell ref="AV87:AY87"/>
+    <mergeCell ref="AR88:AU88"/>
+    <mergeCell ref="AV88:AY88"/>
+    <mergeCell ref="AR89:AU89"/>
+    <mergeCell ref="AV89:AY89"/>
+    <mergeCell ref="AR96:AU96"/>
+    <mergeCell ref="AV96:AY96"/>
+    <mergeCell ref="AR97:AU97"/>
+    <mergeCell ref="AV97:AY97"/>
+    <mergeCell ref="AR98:AU98"/>
+    <mergeCell ref="AV98:AY98"/>
+    <mergeCell ref="AR93:AU93"/>
+    <mergeCell ref="AV93:AY93"/>
+    <mergeCell ref="AR94:AU94"/>
+    <mergeCell ref="AV94:AY94"/>
+    <mergeCell ref="AR95:AU95"/>
+    <mergeCell ref="AV95:AY95"/>
+    <mergeCell ref="AR102:AU102"/>
+    <mergeCell ref="AV102:AY102"/>
+    <mergeCell ref="AR103:AU103"/>
+    <mergeCell ref="AV103:AY103"/>
+    <mergeCell ref="AR104:AU104"/>
+    <mergeCell ref="AV104:AY104"/>
+    <mergeCell ref="AR99:AU99"/>
+    <mergeCell ref="AV99:AY99"/>
+    <mergeCell ref="AR100:AU100"/>
+    <mergeCell ref="AV100:AY100"/>
+    <mergeCell ref="AR101:AU101"/>
+    <mergeCell ref="AV101:AY101"/>
+    <mergeCell ref="AR108:AU108"/>
+    <mergeCell ref="AV108:AY108"/>
+    <mergeCell ref="AR109:AU109"/>
+    <mergeCell ref="AV109:AY109"/>
+    <mergeCell ref="AR110:AU110"/>
+    <mergeCell ref="AV110:AY110"/>
+    <mergeCell ref="AR105:AU105"/>
+    <mergeCell ref="AV105:AY105"/>
+    <mergeCell ref="AR106:AU106"/>
+    <mergeCell ref="AV106:AY106"/>
+    <mergeCell ref="AR107:AU107"/>
+    <mergeCell ref="AV107:AY107"/>
+    <mergeCell ref="AR160:AU160"/>
+    <mergeCell ref="AV160:AY160"/>
+    <mergeCell ref="AR121:AU121"/>
+    <mergeCell ref="AV121:AY121"/>
+    <mergeCell ref="AR117:AU117"/>
+    <mergeCell ref="AV117:AY117"/>
+    <mergeCell ref="AR118:AU118"/>
+    <mergeCell ref="AV118:AY118"/>
+    <mergeCell ref="AR119:AU119"/>
+    <mergeCell ref="AV119:AY119"/>
+    <mergeCell ref="AR123:AU123"/>
+    <mergeCell ref="AV123:AY123"/>
+    <mergeCell ref="AR124:AU124"/>
+    <mergeCell ref="AV124:AY124"/>
+    <mergeCell ref="AR122:AU122"/>
+    <mergeCell ref="AV122:AY122"/>
+    <mergeCell ref="AR120:AU120"/>
+    <mergeCell ref="AV120:AY120"/>
+    <mergeCell ref="AR127:AU127"/>
+    <mergeCell ref="AV127:AY127"/>
+    <mergeCell ref="AR128:AU128"/>
+    <mergeCell ref="AV128:AY128"/>
+    <mergeCell ref="AR129:AU129"/>
+    <mergeCell ref="AV129:AY129"/>
+    <mergeCell ref="AR163:AU163"/>
+    <mergeCell ref="AV163:AY163"/>
+    <mergeCell ref="AR164:AU164"/>
+    <mergeCell ref="AV164:AY164"/>
+    <mergeCell ref="AR165:AU165"/>
+    <mergeCell ref="AV165:AY165"/>
+    <mergeCell ref="AR161:AU161"/>
+    <mergeCell ref="AV161:AY161"/>
+    <mergeCell ref="AR162:AU162"/>
+    <mergeCell ref="AV162:AY162"/>
+    <mergeCell ref="AR171:AU171"/>
+    <mergeCell ref="AV171:AY171"/>
+    <mergeCell ref="AR168:AU168"/>
+    <mergeCell ref="AV168:AY168"/>
+    <mergeCell ref="AR169:AU169"/>
+    <mergeCell ref="AV169:AY169"/>
+    <mergeCell ref="AR166:AU166"/>
+    <mergeCell ref="AV166:AY166"/>
+    <mergeCell ref="AR167:AU167"/>
+    <mergeCell ref="AV167:AY167"/>
+    <mergeCell ref="AR191:AU191"/>
+    <mergeCell ref="AV191:AY191"/>
+    <mergeCell ref="AR192:AU192"/>
+    <mergeCell ref="AV192:AY192"/>
+    <mergeCell ref="AR194:AU194"/>
+    <mergeCell ref="AV194:AY194"/>
+    <mergeCell ref="AR195:AU195"/>
+    <mergeCell ref="AV195:AY195"/>
+    <mergeCell ref="AR186:AU186"/>
+    <mergeCell ref="AV186:AY186"/>
+    <mergeCell ref="AR190:AU190"/>
+    <mergeCell ref="AV190:AY190"/>
+    <mergeCell ref="AR187:AU187"/>
+    <mergeCell ref="AV187:AY187"/>
+    <mergeCell ref="AR188:AU188"/>
+    <mergeCell ref="AV188:AY188"/>
+    <mergeCell ref="AR189:AU189"/>
+    <mergeCell ref="AV189:AY189"/>
+    <mergeCell ref="AR199:AU199"/>
+    <mergeCell ref="AV199:AY199"/>
+    <mergeCell ref="AR200:AU200"/>
+    <mergeCell ref="AV200:AY200"/>
+    <mergeCell ref="AR197:AU197"/>
+    <mergeCell ref="AV197:AY197"/>
+    <mergeCell ref="AR198:AU198"/>
+    <mergeCell ref="AV198:AY198"/>
+    <mergeCell ref="AR193:AU193"/>
+    <mergeCell ref="AV193:AY193"/>
+    <mergeCell ref="AR196:AU196"/>
+    <mergeCell ref="AV196:AY196"/>
+    <mergeCell ref="AR204:AU204"/>
+    <mergeCell ref="AV204:AY204"/>
+    <mergeCell ref="AR205:AU205"/>
+    <mergeCell ref="AV205:AY205"/>
+    <mergeCell ref="AR206:AU206"/>
+    <mergeCell ref="AV206:AY206"/>
+    <mergeCell ref="AR201:AU201"/>
+    <mergeCell ref="AV201:AY201"/>
+    <mergeCell ref="AR202:AU202"/>
+    <mergeCell ref="AV202:AY202"/>
+    <mergeCell ref="AR203:AU203"/>
+    <mergeCell ref="AV203:AY203"/>
+    <mergeCell ref="AR210:AU210"/>
+    <mergeCell ref="AV210:AY210"/>
+    <mergeCell ref="AR211:AU211"/>
+    <mergeCell ref="AV211:AY211"/>
+    <mergeCell ref="AR212:AU212"/>
+    <mergeCell ref="AV212:AY212"/>
+    <mergeCell ref="AR207:AU207"/>
+    <mergeCell ref="AV207:AY207"/>
+    <mergeCell ref="AR208:AU208"/>
+    <mergeCell ref="AV208:AY208"/>
+    <mergeCell ref="AR209:AU209"/>
+    <mergeCell ref="AV209:AY209"/>
+    <mergeCell ref="AR216:AU216"/>
+    <mergeCell ref="AV216:AY216"/>
+    <mergeCell ref="AR217:AU217"/>
+    <mergeCell ref="AV217:AY217"/>
+    <mergeCell ref="AR218:AU218"/>
+    <mergeCell ref="AV218:AY218"/>
+    <mergeCell ref="AR213:AU213"/>
+    <mergeCell ref="AV213:AY213"/>
+    <mergeCell ref="AR214:AU214"/>
+    <mergeCell ref="AV214:AY214"/>
+    <mergeCell ref="AR215:AU215"/>
+    <mergeCell ref="AV215:AY215"/>
+    <mergeCell ref="AR227:AU227"/>
+    <mergeCell ref="AV227:AY227"/>
+    <mergeCell ref="AR228:AU228"/>
+    <mergeCell ref="AV228:AY228"/>
+    <mergeCell ref="AR229:AU229"/>
+    <mergeCell ref="AV229:AY229"/>
+    <mergeCell ref="AR219:AU219"/>
+    <mergeCell ref="AV219:AY219"/>
+    <mergeCell ref="AR225:AU225"/>
+    <mergeCell ref="AV225:AY225"/>
+    <mergeCell ref="AR226:AU226"/>
+    <mergeCell ref="AV226:AY226"/>
+    <mergeCell ref="AR233:AU233"/>
+    <mergeCell ref="AV233:AY233"/>
+    <mergeCell ref="AR234:AU234"/>
+    <mergeCell ref="AV234:AY234"/>
+    <mergeCell ref="AR235:AU235"/>
+    <mergeCell ref="AV235:AY235"/>
+    <mergeCell ref="AR230:AU230"/>
+    <mergeCell ref="AV230:AY230"/>
+    <mergeCell ref="AR231:AU231"/>
+    <mergeCell ref="AV231:AY231"/>
+    <mergeCell ref="AR232:AU232"/>
+    <mergeCell ref="AV232:AY232"/>
+    <mergeCell ref="AR239:AU239"/>
+    <mergeCell ref="AV239:AY239"/>
+    <mergeCell ref="AR240:AU240"/>
+    <mergeCell ref="AV240:AY240"/>
+    <mergeCell ref="AR241:AU241"/>
+    <mergeCell ref="AV241:AY241"/>
+    <mergeCell ref="AR236:AU236"/>
+    <mergeCell ref="AV236:AY236"/>
+    <mergeCell ref="AR237:AU237"/>
+    <mergeCell ref="AV237:AY237"/>
+    <mergeCell ref="AR238:AU238"/>
+    <mergeCell ref="AV238:AY238"/>
+    <mergeCell ref="AR245:AU245"/>
+    <mergeCell ref="AV245:AY245"/>
+    <mergeCell ref="AR246:AU246"/>
+    <mergeCell ref="AV246:AY246"/>
+    <mergeCell ref="AR247:AU247"/>
+    <mergeCell ref="AV247:AY247"/>
+    <mergeCell ref="AR242:AU242"/>
+    <mergeCell ref="AV242:AY242"/>
+    <mergeCell ref="AR243:AU243"/>
+    <mergeCell ref="AV243:AY243"/>
+    <mergeCell ref="AR244:AU244"/>
+    <mergeCell ref="AV244:AY244"/>
+    <mergeCell ref="AR251:AU251"/>
+    <mergeCell ref="AV251:AY251"/>
+    <mergeCell ref="AR252:AU252"/>
+    <mergeCell ref="AV252:AY252"/>
+    <mergeCell ref="AR253:AU253"/>
+    <mergeCell ref="AV253:AY253"/>
+    <mergeCell ref="AR248:AU248"/>
+    <mergeCell ref="AV248:AY248"/>
+    <mergeCell ref="AR249:AU249"/>
+    <mergeCell ref="AV249:AY249"/>
+    <mergeCell ref="AR250:AU250"/>
+    <mergeCell ref="AV250:AY250"/>
+    <mergeCell ref="AR257:AU257"/>
+    <mergeCell ref="AV257:AY257"/>
+    <mergeCell ref="AR258:AU258"/>
+    <mergeCell ref="AV258:AY258"/>
+    <mergeCell ref="AR259:AU259"/>
+    <mergeCell ref="AV259:AY259"/>
+    <mergeCell ref="AR254:AU254"/>
+    <mergeCell ref="AV254:AY254"/>
+    <mergeCell ref="AR255:AU255"/>
+    <mergeCell ref="AV255:AY255"/>
+    <mergeCell ref="AR256:AU256"/>
+    <mergeCell ref="AV256:AY256"/>
+    <mergeCell ref="AR263:AU263"/>
+    <mergeCell ref="AV263:AY263"/>
+    <mergeCell ref="AR264:AU264"/>
+    <mergeCell ref="AV264:AY264"/>
+    <mergeCell ref="AR265:AU265"/>
+    <mergeCell ref="AV265:AY265"/>
+    <mergeCell ref="AR260:AU260"/>
+    <mergeCell ref="AV260:AY260"/>
+    <mergeCell ref="AR261:AU261"/>
+    <mergeCell ref="AV261:AY261"/>
+    <mergeCell ref="AR262:AU262"/>
+    <mergeCell ref="AV262:AY262"/>
+    <mergeCell ref="AR269:AU269"/>
+    <mergeCell ref="AV269:AY269"/>
+    <mergeCell ref="AR270:AU270"/>
+    <mergeCell ref="AV270:AY270"/>
+    <mergeCell ref="AR271:AU271"/>
+    <mergeCell ref="AV271:AY271"/>
+    <mergeCell ref="AR266:AU266"/>
+    <mergeCell ref="AV266:AY266"/>
+    <mergeCell ref="AR267:AU267"/>
+    <mergeCell ref="AV267:AY267"/>
+    <mergeCell ref="AR268:AU268"/>
+    <mergeCell ref="AV268:AY268"/>
+    <mergeCell ref="AR275:AU275"/>
+    <mergeCell ref="AV275:AY275"/>
+    <mergeCell ref="AR276:AU276"/>
+    <mergeCell ref="AV276:AY276"/>
+    <mergeCell ref="AR277:AU277"/>
+    <mergeCell ref="AV277:AY277"/>
+    <mergeCell ref="AR272:AU272"/>
+    <mergeCell ref="AV272:AY272"/>
+    <mergeCell ref="AR273:AU273"/>
+    <mergeCell ref="AV273:AY273"/>
+    <mergeCell ref="AR274:AU274"/>
+    <mergeCell ref="AV274:AY274"/>
+    <mergeCell ref="AR281:AU281"/>
+    <mergeCell ref="AV281:AY281"/>
+    <mergeCell ref="AR282:AU282"/>
+    <mergeCell ref="AV282:AY282"/>
+    <mergeCell ref="AR283:AU283"/>
+    <mergeCell ref="AV283:AY283"/>
+    <mergeCell ref="AR278:AU278"/>
+    <mergeCell ref="AV278:AY278"/>
+    <mergeCell ref="AR279:AU279"/>
+    <mergeCell ref="AV279:AY279"/>
+    <mergeCell ref="AR280:AU280"/>
+    <mergeCell ref="AV280:AY280"/>
+    <mergeCell ref="AR287:AU287"/>
+    <mergeCell ref="AV287:AY287"/>
+    <mergeCell ref="AR288:AU288"/>
+    <mergeCell ref="AV288:AY288"/>
+    <mergeCell ref="AR289:AU289"/>
+    <mergeCell ref="AV289:AY289"/>
+    <mergeCell ref="AR284:AU284"/>
+    <mergeCell ref="AV284:AY284"/>
+    <mergeCell ref="AR285:AU285"/>
+    <mergeCell ref="AV285:AY285"/>
+    <mergeCell ref="AR286:AU286"/>
+    <mergeCell ref="AV286:AY286"/>
+    <mergeCell ref="AR294:AU294"/>
+    <mergeCell ref="AV294:AY294"/>
+    <mergeCell ref="AR295:AU295"/>
+    <mergeCell ref="AV295:AY295"/>
+    <mergeCell ref="AR296:AU296"/>
+    <mergeCell ref="AV296:AY296"/>
+    <mergeCell ref="AR293:AU293"/>
+    <mergeCell ref="AV293:AY293"/>
+    <mergeCell ref="AR290:AU290"/>
+    <mergeCell ref="AV290:AY290"/>
+    <mergeCell ref="AR291:AU291"/>
+    <mergeCell ref="AV291:AY291"/>
+    <mergeCell ref="AR292:AU292"/>
+    <mergeCell ref="AV292:AY292"/>
+    <mergeCell ref="AR300:AU300"/>
+    <mergeCell ref="AV300:AY300"/>
+    <mergeCell ref="AR305:AU305"/>
+    <mergeCell ref="AV305:AY305"/>
+    <mergeCell ref="AR306:AU306"/>
+    <mergeCell ref="AV306:AY306"/>
+    <mergeCell ref="AR297:AU297"/>
+    <mergeCell ref="AV297:AY297"/>
+    <mergeCell ref="AR298:AU298"/>
+    <mergeCell ref="AV298:AY298"/>
+    <mergeCell ref="AR299:AU299"/>
+    <mergeCell ref="AV299:AY299"/>
+    <mergeCell ref="AR301:AU301"/>
+    <mergeCell ref="AV301:AY301"/>
+    <mergeCell ref="AR302:AU302"/>
+    <mergeCell ref="AV302:AY302"/>
+    <mergeCell ref="AR303:AU303"/>
+    <mergeCell ref="AV303:AY303"/>
+    <mergeCell ref="AR304:AU304"/>
+    <mergeCell ref="AV304:AY304"/>
+    <mergeCell ref="AR310:AU310"/>
+    <mergeCell ref="AV310:AY310"/>
+    <mergeCell ref="AR311:AU311"/>
+    <mergeCell ref="AV311:AY311"/>
+    <mergeCell ref="AR312:AU312"/>
+    <mergeCell ref="AV312:AY312"/>
+    <mergeCell ref="AR307:AU307"/>
+    <mergeCell ref="AV307:AY307"/>
+    <mergeCell ref="AR308:AU308"/>
+    <mergeCell ref="AV308:AY308"/>
+    <mergeCell ref="AR309:AU309"/>
+    <mergeCell ref="AV309:AY309"/>
+    <mergeCell ref="AR316:AU316"/>
+    <mergeCell ref="AV316:AY316"/>
+    <mergeCell ref="AR317:AU317"/>
+    <mergeCell ref="AV317:AY317"/>
+    <mergeCell ref="AR318:AU318"/>
+    <mergeCell ref="AV318:AY318"/>
+    <mergeCell ref="AR313:AU313"/>
+    <mergeCell ref="AV313:AY313"/>
+    <mergeCell ref="AR314:AU314"/>
+    <mergeCell ref="AV314:AY314"/>
+    <mergeCell ref="AR315:AU315"/>
+    <mergeCell ref="AV315:AY315"/>
+    <mergeCell ref="AR322:AU322"/>
+    <mergeCell ref="AV322:AY322"/>
+    <mergeCell ref="AR323:AU323"/>
+    <mergeCell ref="AV323:AY323"/>
+    <mergeCell ref="AR324:AU324"/>
+    <mergeCell ref="AV324:AY324"/>
+    <mergeCell ref="AR319:AU319"/>
+    <mergeCell ref="AV319:AY319"/>
+    <mergeCell ref="AR320:AU320"/>
+    <mergeCell ref="AV320:AY320"/>
+    <mergeCell ref="AR321:AU321"/>
+    <mergeCell ref="AV321:AY321"/>
+    <mergeCell ref="AR328:AU328"/>
+    <mergeCell ref="AV328:AY328"/>
+    <mergeCell ref="AR329:AU329"/>
+    <mergeCell ref="AV329:AY329"/>
+    <mergeCell ref="AR330:AU330"/>
+    <mergeCell ref="AV330:AY330"/>
+    <mergeCell ref="AR325:AU325"/>
+    <mergeCell ref="AV325:AY325"/>
+    <mergeCell ref="AR326:AU326"/>
+    <mergeCell ref="AV326:AY326"/>
+    <mergeCell ref="AR327:AU327"/>
+    <mergeCell ref="AV327:AY327"/>
+    <mergeCell ref="AR334:AU334"/>
+    <mergeCell ref="AV334:AY334"/>
+    <mergeCell ref="AR335:AU335"/>
+    <mergeCell ref="AV335:AY335"/>
+    <mergeCell ref="AR336:AU336"/>
+    <mergeCell ref="AV336:AY336"/>
+    <mergeCell ref="AR331:AU331"/>
+    <mergeCell ref="AV331:AY331"/>
+    <mergeCell ref="AR332:AU332"/>
+    <mergeCell ref="AV332:AY332"/>
+    <mergeCell ref="AR333:AU333"/>
+    <mergeCell ref="AV333:AY333"/>
+    <mergeCell ref="AR340:AU340"/>
+    <mergeCell ref="AV340:AY340"/>
+    <mergeCell ref="AR341:AU341"/>
+    <mergeCell ref="AV341:AY341"/>
+    <mergeCell ref="AR342:AU342"/>
+    <mergeCell ref="AV342:AY342"/>
+    <mergeCell ref="AR337:AU337"/>
+    <mergeCell ref="AV337:AY337"/>
+    <mergeCell ref="AR338:AU338"/>
+    <mergeCell ref="AV338:AY338"/>
+    <mergeCell ref="AR339:AU339"/>
+    <mergeCell ref="AV339:AY339"/>
+    <mergeCell ref="AR346:AU346"/>
+    <mergeCell ref="AV346:AY346"/>
+    <mergeCell ref="AR347:AU347"/>
+    <mergeCell ref="AV347:AY347"/>
+    <mergeCell ref="AR348:AU348"/>
+    <mergeCell ref="AV348:AY348"/>
+    <mergeCell ref="AR343:AU343"/>
+    <mergeCell ref="AV343:AY343"/>
+    <mergeCell ref="AR344:AU344"/>
+    <mergeCell ref="AV344:AY344"/>
+    <mergeCell ref="AR345:AU345"/>
+    <mergeCell ref="AV345:AY345"/>
+    <mergeCell ref="AR352:AU352"/>
+    <mergeCell ref="AV352:AY352"/>
+    <mergeCell ref="AR353:AU353"/>
+    <mergeCell ref="AV353:AY353"/>
+    <mergeCell ref="AR354:AU354"/>
+    <mergeCell ref="AV354:AY354"/>
+    <mergeCell ref="AR349:AU349"/>
+    <mergeCell ref="AV349:AY349"/>
+    <mergeCell ref="AR350:AU350"/>
+    <mergeCell ref="AV350:AY350"/>
+    <mergeCell ref="AR351:AU351"/>
+    <mergeCell ref="AV351:AY351"/>
+    <mergeCell ref="AR359:AU359"/>
+    <mergeCell ref="AV359:AY359"/>
+    <mergeCell ref="AR358:AU358"/>
+    <mergeCell ref="AV358:AY358"/>
+    <mergeCell ref="AR355:AU355"/>
+    <mergeCell ref="AV355:AY355"/>
+    <mergeCell ref="AR356:AU356"/>
+    <mergeCell ref="AV356:AY356"/>
+    <mergeCell ref="AR357:AU357"/>
+    <mergeCell ref="AV357:AY357"/>
+    <mergeCell ref="AR59:AU59"/>
+    <mergeCell ref="AV59:AY59"/>
+    <mergeCell ref="AR56:AU56"/>
+    <mergeCell ref="AV56:AY56"/>
+    <mergeCell ref="AR51:AU51"/>
+    <mergeCell ref="AV51:AY51"/>
+    <mergeCell ref="AR52:AU52"/>
+    <mergeCell ref="AV52:AY52"/>
+    <mergeCell ref="AR48:AU48"/>
+    <mergeCell ref="AV48:AY48"/>
+    <mergeCell ref="AR49:AU49"/>
+    <mergeCell ref="AV49:AY49"/>
+    <mergeCell ref="AR50:AU50"/>
+    <mergeCell ref="AV50:AY50"/>
+    <mergeCell ref="AR53:AU53"/>
+    <mergeCell ref="AV53:AY53"/>
+    <mergeCell ref="AR114:AU114"/>
+    <mergeCell ref="AV114:AY114"/>
+    <mergeCell ref="AR115:AU115"/>
+    <mergeCell ref="AV115:AY115"/>
+    <mergeCell ref="AR116:AU116"/>
+    <mergeCell ref="AV116:AY116"/>
+    <mergeCell ref="AR111:AU111"/>
+    <mergeCell ref="AV111:AY111"/>
+    <mergeCell ref="AR112:AU112"/>
+    <mergeCell ref="AV112:AY112"/>
+    <mergeCell ref="AR113:AU113"/>
+    <mergeCell ref="AV113:AY113"/>
+    <mergeCell ref="AR125:AU125"/>
+    <mergeCell ref="AV125:AY125"/>
+    <mergeCell ref="AR126:AU126"/>
+    <mergeCell ref="AV126:AY126"/>
+    <mergeCell ref="AR132:AU132"/>
+    <mergeCell ref="AV132:AY132"/>
+    <mergeCell ref="AR133:AU133"/>
+    <mergeCell ref="AV133:AY133"/>
+    <mergeCell ref="AR134:AU134"/>
+    <mergeCell ref="AV134:AY134"/>
+    <mergeCell ref="AR130:AU130"/>
+    <mergeCell ref="AV130:AY130"/>
+    <mergeCell ref="AR131:AU131"/>
+    <mergeCell ref="AV131:AY131"/>
+    <mergeCell ref="AR137:AU137"/>
+    <mergeCell ref="AV137:AY137"/>
+    <mergeCell ref="AR138:AU138"/>
+    <mergeCell ref="AV138:AY138"/>
+    <mergeCell ref="AR139:AU139"/>
+    <mergeCell ref="AV139:AY139"/>
+    <mergeCell ref="AR135:AU135"/>
+    <mergeCell ref="AV135:AY135"/>
+    <mergeCell ref="AR136:AU136"/>
+    <mergeCell ref="AV136:AY136"/>
+    <mergeCell ref="AR142:AU142"/>
+    <mergeCell ref="AV142:AY142"/>
+    <mergeCell ref="AR143:AU143"/>
+    <mergeCell ref="AV143:AY143"/>
+    <mergeCell ref="AR144:AU144"/>
+    <mergeCell ref="AV144:AY144"/>
+    <mergeCell ref="AR140:AU140"/>
+    <mergeCell ref="AV140:AY140"/>
+    <mergeCell ref="AR141:AU141"/>
+    <mergeCell ref="AV141:AY141"/>
+    <mergeCell ref="AR145:AU145"/>
+    <mergeCell ref="AV145:AY145"/>
+    <mergeCell ref="AR146:AU146"/>
+    <mergeCell ref="AV146:AY146"/>
+    <mergeCell ref="AR151:AU151"/>
+    <mergeCell ref="AV151:AY151"/>
+    <mergeCell ref="AR152:AU152"/>
+    <mergeCell ref="AV152:AY152"/>
+    <mergeCell ref="AR153:AU153"/>
+    <mergeCell ref="AV153:AY153"/>
+    <mergeCell ref="AR150:AU150"/>
+    <mergeCell ref="AV150:AY150"/>
+    <mergeCell ref="AR178:AU178"/>
+    <mergeCell ref="AV178:AY178"/>
+    <mergeCell ref="AR155:AU155"/>
+    <mergeCell ref="AV155:AY155"/>
+    <mergeCell ref="AR147:AU147"/>
+    <mergeCell ref="AV147:AY147"/>
+    <mergeCell ref="AR148:AU148"/>
+    <mergeCell ref="AV148:AY148"/>
+    <mergeCell ref="AR149:AU149"/>
+    <mergeCell ref="AV149:AY149"/>
+    <mergeCell ref="AR154:AU154"/>
+    <mergeCell ref="AV154:AY154"/>
+    <mergeCell ref="AR175:AU175"/>
+    <mergeCell ref="AV175:AY175"/>
+    <mergeCell ref="AR176:AU176"/>
+    <mergeCell ref="AV176:AY176"/>
+    <mergeCell ref="AR172:AU172"/>
+    <mergeCell ref="AV172:AY172"/>
+    <mergeCell ref="AR173:AU173"/>
+    <mergeCell ref="AV173:AY173"/>
+    <mergeCell ref="AR174:AU174"/>
+    <mergeCell ref="AV174:AY174"/>
+    <mergeCell ref="AR170:AU170"/>
+    <mergeCell ref="AV170:AY170"/>
     <mergeCell ref="AR185:AU185"/>
     <mergeCell ref="AV185:AY185"/>
     <mergeCell ref="AR159:AU159"/>
@@ -20791,712 +21509,6 @@
     <mergeCell ref="AV181:AY181"/>
     <mergeCell ref="AR177:AU177"/>
     <mergeCell ref="AV177:AY177"/>
-    <mergeCell ref="AR178:AU178"/>
-    <mergeCell ref="AV178:AY178"/>
-    <mergeCell ref="AR155:AU155"/>
-    <mergeCell ref="AV155:AY155"/>
-    <mergeCell ref="AR147:AU147"/>
-    <mergeCell ref="AV147:AY147"/>
-    <mergeCell ref="AR148:AU148"/>
-    <mergeCell ref="AV148:AY148"/>
-    <mergeCell ref="AR149:AU149"/>
-    <mergeCell ref="AV149:AY149"/>
-    <mergeCell ref="AR154:AU154"/>
-    <mergeCell ref="AV154:AY154"/>
-    <mergeCell ref="AR175:AU175"/>
-    <mergeCell ref="AV175:AY175"/>
-    <mergeCell ref="AR176:AU176"/>
-    <mergeCell ref="AV176:AY176"/>
-    <mergeCell ref="AR172:AU172"/>
-    <mergeCell ref="AV172:AY172"/>
-    <mergeCell ref="AR173:AU173"/>
-    <mergeCell ref="AV173:AY173"/>
-    <mergeCell ref="AR174:AU174"/>
-    <mergeCell ref="AV174:AY174"/>
-    <mergeCell ref="AR170:AU170"/>
-    <mergeCell ref="AV170:AY170"/>
-    <mergeCell ref="AR145:AU145"/>
-    <mergeCell ref="AV145:AY145"/>
-    <mergeCell ref="AR146:AU146"/>
-    <mergeCell ref="AV146:AY146"/>
-    <mergeCell ref="AR151:AU151"/>
-    <mergeCell ref="AV151:AY151"/>
-    <mergeCell ref="AR152:AU152"/>
-    <mergeCell ref="AV152:AY152"/>
-    <mergeCell ref="AR153:AU153"/>
-    <mergeCell ref="AV153:AY153"/>
-    <mergeCell ref="AR150:AU150"/>
-    <mergeCell ref="AV150:AY150"/>
-    <mergeCell ref="AR142:AU142"/>
-    <mergeCell ref="AV142:AY142"/>
-    <mergeCell ref="AR143:AU143"/>
-    <mergeCell ref="AV143:AY143"/>
-    <mergeCell ref="AR144:AU144"/>
-    <mergeCell ref="AV144:AY144"/>
-    <mergeCell ref="AR140:AU140"/>
-    <mergeCell ref="AV140:AY140"/>
-    <mergeCell ref="AR141:AU141"/>
-    <mergeCell ref="AV141:AY141"/>
-    <mergeCell ref="AR137:AU137"/>
-    <mergeCell ref="AV137:AY137"/>
-    <mergeCell ref="AR138:AU138"/>
-    <mergeCell ref="AV138:AY138"/>
-    <mergeCell ref="AR139:AU139"/>
-    <mergeCell ref="AV139:AY139"/>
-    <mergeCell ref="AR135:AU135"/>
-    <mergeCell ref="AV135:AY135"/>
-    <mergeCell ref="AR136:AU136"/>
-    <mergeCell ref="AV136:AY136"/>
-    <mergeCell ref="AR125:AU125"/>
-    <mergeCell ref="AV125:AY125"/>
-    <mergeCell ref="AR126:AU126"/>
-    <mergeCell ref="AV126:AY126"/>
-    <mergeCell ref="AR132:AU132"/>
-    <mergeCell ref="AV132:AY132"/>
-    <mergeCell ref="AR133:AU133"/>
-    <mergeCell ref="AV133:AY133"/>
-    <mergeCell ref="AR134:AU134"/>
-    <mergeCell ref="AV134:AY134"/>
-    <mergeCell ref="AR130:AU130"/>
-    <mergeCell ref="AV130:AY130"/>
-    <mergeCell ref="AR131:AU131"/>
-    <mergeCell ref="AV131:AY131"/>
-    <mergeCell ref="AR114:AU114"/>
-    <mergeCell ref="AV114:AY114"/>
-    <mergeCell ref="AR115:AU115"/>
-    <mergeCell ref="AV115:AY115"/>
-    <mergeCell ref="AR116:AU116"/>
-    <mergeCell ref="AV116:AY116"/>
-    <mergeCell ref="AR111:AU111"/>
-    <mergeCell ref="AV111:AY111"/>
-    <mergeCell ref="AR112:AU112"/>
-    <mergeCell ref="AV112:AY112"/>
-    <mergeCell ref="AR113:AU113"/>
-    <mergeCell ref="AV113:AY113"/>
-    <mergeCell ref="AR59:AU59"/>
-    <mergeCell ref="AV59:AY59"/>
-    <mergeCell ref="AR56:AU56"/>
-    <mergeCell ref="AV56:AY56"/>
-    <mergeCell ref="AR51:AU51"/>
-    <mergeCell ref="AV51:AY51"/>
-    <mergeCell ref="AR52:AU52"/>
-    <mergeCell ref="AV52:AY52"/>
-    <mergeCell ref="AR48:AU48"/>
-    <mergeCell ref="AV48:AY48"/>
-    <mergeCell ref="AR49:AU49"/>
-    <mergeCell ref="AV49:AY49"/>
-    <mergeCell ref="AR50:AU50"/>
-    <mergeCell ref="AV50:AY50"/>
-    <mergeCell ref="AR53:AU53"/>
-    <mergeCell ref="AV53:AY53"/>
-    <mergeCell ref="AR359:AU359"/>
-    <mergeCell ref="AV359:AY359"/>
-    <mergeCell ref="AR358:AU358"/>
-    <mergeCell ref="AV358:AY358"/>
-    <mergeCell ref="AR355:AU355"/>
-    <mergeCell ref="AV355:AY355"/>
-    <mergeCell ref="AR356:AU356"/>
-    <mergeCell ref="AV356:AY356"/>
-    <mergeCell ref="AR357:AU357"/>
-    <mergeCell ref="AV357:AY357"/>
-    <mergeCell ref="AR352:AU352"/>
-    <mergeCell ref="AV352:AY352"/>
-    <mergeCell ref="AR353:AU353"/>
-    <mergeCell ref="AV353:AY353"/>
-    <mergeCell ref="AR354:AU354"/>
-    <mergeCell ref="AV354:AY354"/>
-    <mergeCell ref="AR349:AU349"/>
-    <mergeCell ref="AV349:AY349"/>
-    <mergeCell ref="AR350:AU350"/>
-    <mergeCell ref="AV350:AY350"/>
-    <mergeCell ref="AR351:AU351"/>
-    <mergeCell ref="AV351:AY351"/>
-    <mergeCell ref="AR346:AU346"/>
-    <mergeCell ref="AV346:AY346"/>
-    <mergeCell ref="AR347:AU347"/>
-    <mergeCell ref="AV347:AY347"/>
-    <mergeCell ref="AR348:AU348"/>
-    <mergeCell ref="AV348:AY348"/>
-    <mergeCell ref="AR343:AU343"/>
-    <mergeCell ref="AV343:AY343"/>
-    <mergeCell ref="AR344:AU344"/>
-    <mergeCell ref="AV344:AY344"/>
-    <mergeCell ref="AR345:AU345"/>
-    <mergeCell ref="AV345:AY345"/>
-    <mergeCell ref="AR340:AU340"/>
-    <mergeCell ref="AV340:AY340"/>
-    <mergeCell ref="AR341:AU341"/>
-    <mergeCell ref="AV341:AY341"/>
-    <mergeCell ref="AR342:AU342"/>
-    <mergeCell ref="AV342:AY342"/>
-    <mergeCell ref="AR337:AU337"/>
-    <mergeCell ref="AV337:AY337"/>
-    <mergeCell ref="AR338:AU338"/>
-    <mergeCell ref="AV338:AY338"/>
-    <mergeCell ref="AR339:AU339"/>
-    <mergeCell ref="AV339:AY339"/>
-    <mergeCell ref="AR334:AU334"/>
-    <mergeCell ref="AV334:AY334"/>
-    <mergeCell ref="AR335:AU335"/>
-    <mergeCell ref="AV335:AY335"/>
-    <mergeCell ref="AR336:AU336"/>
-    <mergeCell ref="AV336:AY336"/>
-    <mergeCell ref="AR331:AU331"/>
-    <mergeCell ref="AV331:AY331"/>
-    <mergeCell ref="AR332:AU332"/>
-    <mergeCell ref="AV332:AY332"/>
-    <mergeCell ref="AR333:AU333"/>
-    <mergeCell ref="AV333:AY333"/>
-    <mergeCell ref="AR328:AU328"/>
-    <mergeCell ref="AV328:AY328"/>
-    <mergeCell ref="AR329:AU329"/>
-    <mergeCell ref="AV329:AY329"/>
-    <mergeCell ref="AR330:AU330"/>
-    <mergeCell ref="AV330:AY330"/>
-    <mergeCell ref="AR325:AU325"/>
-    <mergeCell ref="AV325:AY325"/>
-    <mergeCell ref="AR326:AU326"/>
-    <mergeCell ref="AV326:AY326"/>
-    <mergeCell ref="AR327:AU327"/>
-    <mergeCell ref="AV327:AY327"/>
-    <mergeCell ref="AR322:AU322"/>
-    <mergeCell ref="AV322:AY322"/>
-    <mergeCell ref="AR323:AU323"/>
-    <mergeCell ref="AV323:AY323"/>
-    <mergeCell ref="AR324:AU324"/>
-    <mergeCell ref="AV324:AY324"/>
-    <mergeCell ref="AR319:AU319"/>
-    <mergeCell ref="AV319:AY319"/>
-    <mergeCell ref="AR320:AU320"/>
-    <mergeCell ref="AV320:AY320"/>
-    <mergeCell ref="AR321:AU321"/>
-    <mergeCell ref="AV321:AY321"/>
-    <mergeCell ref="AR316:AU316"/>
-    <mergeCell ref="AV316:AY316"/>
-    <mergeCell ref="AR317:AU317"/>
-    <mergeCell ref="AV317:AY317"/>
-    <mergeCell ref="AR318:AU318"/>
-    <mergeCell ref="AV318:AY318"/>
-    <mergeCell ref="AR313:AU313"/>
-    <mergeCell ref="AV313:AY313"/>
-    <mergeCell ref="AR314:AU314"/>
-    <mergeCell ref="AV314:AY314"/>
-    <mergeCell ref="AR315:AU315"/>
-    <mergeCell ref="AV315:AY315"/>
-    <mergeCell ref="AR310:AU310"/>
-    <mergeCell ref="AV310:AY310"/>
-    <mergeCell ref="AR311:AU311"/>
-    <mergeCell ref="AV311:AY311"/>
-    <mergeCell ref="AR312:AU312"/>
-    <mergeCell ref="AV312:AY312"/>
-    <mergeCell ref="AR307:AU307"/>
-    <mergeCell ref="AV307:AY307"/>
-    <mergeCell ref="AR308:AU308"/>
-    <mergeCell ref="AV308:AY308"/>
-    <mergeCell ref="AR309:AU309"/>
-    <mergeCell ref="AV309:AY309"/>
-    <mergeCell ref="AR300:AU300"/>
-    <mergeCell ref="AV300:AY300"/>
-    <mergeCell ref="AR305:AU305"/>
-    <mergeCell ref="AV305:AY305"/>
-    <mergeCell ref="AR306:AU306"/>
-    <mergeCell ref="AV306:AY306"/>
-    <mergeCell ref="AR297:AU297"/>
-    <mergeCell ref="AV297:AY297"/>
-    <mergeCell ref="AR298:AU298"/>
-    <mergeCell ref="AV298:AY298"/>
-    <mergeCell ref="AR299:AU299"/>
-    <mergeCell ref="AV299:AY299"/>
-    <mergeCell ref="AR301:AU301"/>
-    <mergeCell ref="AV301:AY301"/>
-    <mergeCell ref="AR302:AU302"/>
-    <mergeCell ref="AV302:AY302"/>
-    <mergeCell ref="AR303:AU303"/>
-    <mergeCell ref="AV303:AY303"/>
-    <mergeCell ref="AR304:AU304"/>
-    <mergeCell ref="AV304:AY304"/>
-    <mergeCell ref="AR294:AU294"/>
-    <mergeCell ref="AV294:AY294"/>
-    <mergeCell ref="AR295:AU295"/>
-    <mergeCell ref="AV295:AY295"/>
-    <mergeCell ref="AR296:AU296"/>
-    <mergeCell ref="AV296:AY296"/>
-    <mergeCell ref="AR293:AU293"/>
-    <mergeCell ref="AV293:AY293"/>
-    <mergeCell ref="AR290:AU290"/>
-    <mergeCell ref="AV290:AY290"/>
-    <mergeCell ref="AR291:AU291"/>
-    <mergeCell ref="AV291:AY291"/>
-    <mergeCell ref="AR292:AU292"/>
-    <mergeCell ref="AV292:AY292"/>
-    <mergeCell ref="AR287:AU287"/>
-    <mergeCell ref="AV287:AY287"/>
-    <mergeCell ref="AR288:AU288"/>
-    <mergeCell ref="AV288:AY288"/>
-    <mergeCell ref="AR289:AU289"/>
-    <mergeCell ref="AV289:AY289"/>
-    <mergeCell ref="AR284:AU284"/>
-    <mergeCell ref="AV284:AY284"/>
-    <mergeCell ref="AR285:AU285"/>
-    <mergeCell ref="AV285:AY285"/>
-    <mergeCell ref="AR286:AU286"/>
-    <mergeCell ref="AV286:AY286"/>
-    <mergeCell ref="AR281:AU281"/>
-    <mergeCell ref="AV281:AY281"/>
-    <mergeCell ref="AR282:AU282"/>
-    <mergeCell ref="AV282:AY282"/>
-    <mergeCell ref="AR283:AU283"/>
-    <mergeCell ref="AV283:AY283"/>
-    <mergeCell ref="AR278:AU278"/>
-    <mergeCell ref="AV278:AY278"/>
-    <mergeCell ref="AR279:AU279"/>
-    <mergeCell ref="AV279:AY279"/>
-    <mergeCell ref="AR280:AU280"/>
-    <mergeCell ref="AV280:AY280"/>
-    <mergeCell ref="AR275:AU275"/>
-    <mergeCell ref="AV275:AY275"/>
-    <mergeCell ref="AR276:AU276"/>
-    <mergeCell ref="AV276:AY276"/>
-    <mergeCell ref="AR277:AU277"/>
-    <mergeCell ref="AV277:AY277"/>
-    <mergeCell ref="AR272:AU272"/>
-    <mergeCell ref="AV272:AY272"/>
-    <mergeCell ref="AR273:AU273"/>
-    <mergeCell ref="AV273:AY273"/>
-    <mergeCell ref="AR274:AU274"/>
-    <mergeCell ref="AV274:AY274"/>
-    <mergeCell ref="AR269:AU269"/>
-    <mergeCell ref="AV269:AY269"/>
-    <mergeCell ref="AR270:AU270"/>
-    <mergeCell ref="AV270:AY270"/>
-    <mergeCell ref="AR271:AU271"/>
-    <mergeCell ref="AV271:AY271"/>
-    <mergeCell ref="AR266:AU266"/>
-    <mergeCell ref="AV266:AY266"/>
-    <mergeCell ref="AR267:AU267"/>
-    <mergeCell ref="AV267:AY267"/>
-    <mergeCell ref="AR268:AU268"/>
-    <mergeCell ref="AV268:AY268"/>
-    <mergeCell ref="AR263:AU263"/>
-    <mergeCell ref="AV263:AY263"/>
-    <mergeCell ref="AR264:AU264"/>
-    <mergeCell ref="AV264:AY264"/>
-    <mergeCell ref="AR265:AU265"/>
-    <mergeCell ref="AV265:AY265"/>
-    <mergeCell ref="AR260:AU260"/>
-    <mergeCell ref="AV260:AY260"/>
-    <mergeCell ref="AR261:AU261"/>
-    <mergeCell ref="AV261:AY261"/>
-    <mergeCell ref="AR262:AU262"/>
-    <mergeCell ref="AV262:AY262"/>
-    <mergeCell ref="AR257:AU257"/>
-    <mergeCell ref="AV257:AY257"/>
-    <mergeCell ref="AR258:AU258"/>
-    <mergeCell ref="AV258:AY258"/>
-    <mergeCell ref="AR259:AU259"/>
-    <mergeCell ref="AV259:AY259"/>
-    <mergeCell ref="AR254:AU254"/>
-    <mergeCell ref="AV254:AY254"/>
-    <mergeCell ref="AR255:AU255"/>
-    <mergeCell ref="AV255:AY255"/>
-    <mergeCell ref="AR256:AU256"/>
-    <mergeCell ref="AV256:AY256"/>
-    <mergeCell ref="AR251:AU251"/>
-    <mergeCell ref="AV251:AY251"/>
-    <mergeCell ref="AR252:AU252"/>
-    <mergeCell ref="AV252:AY252"/>
-    <mergeCell ref="AR253:AU253"/>
-    <mergeCell ref="AV253:AY253"/>
-    <mergeCell ref="AR248:AU248"/>
-    <mergeCell ref="AV248:AY248"/>
-    <mergeCell ref="AR249:AU249"/>
-    <mergeCell ref="AV249:AY249"/>
-    <mergeCell ref="AR250:AU250"/>
-    <mergeCell ref="AV250:AY250"/>
-    <mergeCell ref="AR245:AU245"/>
-    <mergeCell ref="AV245:AY245"/>
-    <mergeCell ref="AR246:AU246"/>
-    <mergeCell ref="AV246:AY246"/>
-    <mergeCell ref="AR247:AU247"/>
-    <mergeCell ref="AV247:AY247"/>
-    <mergeCell ref="AR242:AU242"/>
-    <mergeCell ref="AV242:AY242"/>
-    <mergeCell ref="AR243:AU243"/>
-    <mergeCell ref="AV243:AY243"/>
-    <mergeCell ref="AR244:AU244"/>
-    <mergeCell ref="AV244:AY244"/>
-    <mergeCell ref="AR239:AU239"/>
-    <mergeCell ref="AV239:AY239"/>
-    <mergeCell ref="AR240:AU240"/>
-    <mergeCell ref="AV240:AY240"/>
-    <mergeCell ref="AR241:AU241"/>
-    <mergeCell ref="AV241:AY241"/>
-    <mergeCell ref="AR236:AU236"/>
-    <mergeCell ref="AV236:AY236"/>
-    <mergeCell ref="AR237:AU237"/>
-    <mergeCell ref="AV237:AY237"/>
-    <mergeCell ref="AR238:AU238"/>
-    <mergeCell ref="AV238:AY238"/>
-    <mergeCell ref="AR233:AU233"/>
-    <mergeCell ref="AV233:AY233"/>
-    <mergeCell ref="AR234:AU234"/>
-    <mergeCell ref="AV234:AY234"/>
-    <mergeCell ref="AR235:AU235"/>
-    <mergeCell ref="AV235:AY235"/>
-    <mergeCell ref="AR230:AU230"/>
-    <mergeCell ref="AV230:AY230"/>
-    <mergeCell ref="AR231:AU231"/>
-    <mergeCell ref="AV231:AY231"/>
-    <mergeCell ref="AR232:AU232"/>
-    <mergeCell ref="AV232:AY232"/>
-    <mergeCell ref="AR227:AU227"/>
-    <mergeCell ref="AV227:AY227"/>
-    <mergeCell ref="AR228:AU228"/>
-    <mergeCell ref="AV228:AY228"/>
-    <mergeCell ref="AR229:AU229"/>
-    <mergeCell ref="AV229:AY229"/>
-    <mergeCell ref="AR219:AU219"/>
-    <mergeCell ref="AV219:AY219"/>
-    <mergeCell ref="AR225:AU225"/>
-    <mergeCell ref="AV225:AY225"/>
-    <mergeCell ref="AR226:AU226"/>
-    <mergeCell ref="AV226:AY226"/>
-    <mergeCell ref="AR216:AU216"/>
-    <mergeCell ref="AV216:AY216"/>
-    <mergeCell ref="AR217:AU217"/>
-    <mergeCell ref="AV217:AY217"/>
-    <mergeCell ref="AR218:AU218"/>
-    <mergeCell ref="AV218:AY218"/>
-    <mergeCell ref="AR213:AU213"/>
-    <mergeCell ref="AV213:AY213"/>
-    <mergeCell ref="AR214:AU214"/>
-    <mergeCell ref="AV214:AY214"/>
-    <mergeCell ref="AR215:AU215"/>
-    <mergeCell ref="AV215:AY215"/>
-    <mergeCell ref="AR210:AU210"/>
-    <mergeCell ref="AV210:AY210"/>
-    <mergeCell ref="AR211:AU211"/>
-    <mergeCell ref="AV211:AY211"/>
-    <mergeCell ref="AR212:AU212"/>
-    <mergeCell ref="AV212:AY212"/>
-    <mergeCell ref="AR207:AU207"/>
-    <mergeCell ref="AV207:AY207"/>
-    <mergeCell ref="AR208:AU208"/>
-    <mergeCell ref="AV208:AY208"/>
-    <mergeCell ref="AR209:AU209"/>
-    <mergeCell ref="AV209:AY209"/>
-    <mergeCell ref="AR204:AU204"/>
-    <mergeCell ref="AV204:AY204"/>
-    <mergeCell ref="AR205:AU205"/>
-    <mergeCell ref="AV205:AY205"/>
-    <mergeCell ref="AR206:AU206"/>
-    <mergeCell ref="AV206:AY206"/>
-    <mergeCell ref="AR201:AU201"/>
-    <mergeCell ref="AV201:AY201"/>
-    <mergeCell ref="AR202:AU202"/>
-    <mergeCell ref="AV202:AY202"/>
-    <mergeCell ref="AR203:AU203"/>
-    <mergeCell ref="AV203:AY203"/>
-    <mergeCell ref="AR199:AU199"/>
-    <mergeCell ref="AV199:AY199"/>
-    <mergeCell ref="AR200:AU200"/>
-    <mergeCell ref="AV200:AY200"/>
-    <mergeCell ref="AR197:AU197"/>
-    <mergeCell ref="AV197:AY197"/>
-    <mergeCell ref="AR198:AU198"/>
-    <mergeCell ref="AV198:AY198"/>
-    <mergeCell ref="AR193:AU193"/>
-    <mergeCell ref="AV193:AY193"/>
-    <mergeCell ref="AR196:AU196"/>
-    <mergeCell ref="AV196:AY196"/>
-    <mergeCell ref="AR191:AU191"/>
-    <mergeCell ref="AV191:AY191"/>
-    <mergeCell ref="AR192:AU192"/>
-    <mergeCell ref="AV192:AY192"/>
-    <mergeCell ref="AR194:AU194"/>
-    <mergeCell ref="AV194:AY194"/>
-    <mergeCell ref="AR195:AU195"/>
-    <mergeCell ref="AV195:AY195"/>
-    <mergeCell ref="AR186:AU186"/>
-    <mergeCell ref="AV186:AY186"/>
-    <mergeCell ref="AR190:AU190"/>
-    <mergeCell ref="AV190:AY190"/>
-    <mergeCell ref="AR187:AU187"/>
-    <mergeCell ref="AV187:AY187"/>
-    <mergeCell ref="AR188:AU188"/>
-    <mergeCell ref="AV188:AY188"/>
-    <mergeCell ref="AR189:AU189"/>
-    <mergeCell ref="AV189:AY189"/>
-    <mergeCell ref="AR171:AU171"/>
-    <mergeCell ref="AV171:AY171"/>
-    <mergeCell ref="AR168:AU168"/>
-    <mergeCell ref="AV168:AY168"/>
-    <mergeCell ref="AR169:AU169"/>
-    <mergeCell ref="AV169:AY169"/>
-    <mergeCell ref="AR166:AU166"/>
-    <mergeCell ref="AV166:AY166"/>
-    <mergeCell ref="AR167:AU167"/>
-    <mergeCell ref="AV167:AY167"/>
-    <mergeCell ref="AR163:AU163"/>
-    <mergeCell ref="AV163:AY163"/>
-    <mergeCell ref="AR164:AU164"/>
-    <mergeCell ref="AV164:AY164"/>
-    <mergeCell ref="AR165:AU165"/>
-    <mergeCell ref="AV165:AY165"/>
-    <mergeCell ref="AR161:AU161"/>
-    <mergeCell ref="AV161:AY161"/>
-    <mergeCell ref="AR162:AU162"/>
-    <mergeCell ref="AV162:AY162"/>
-    <mergeCell ref="AR160:AU160"/>
-    <mergeCell ref="AV160:AY160"/>
-    <mergeCell ref="AR121:AU121"/>
-    <mergeCell ref="AV121:AY121"/>
-    <mergeCell ref="AR117:AU117"/>
-    <mergeCell ref="AV117:AY117"/>
-    <mergeCell ref="AR118:AU118"/>
-    <mergeCell ref="AV118:AY118"/>
-    <mergeCell ref="AR119:AU119"/>
-    <mergeCell ref="AV119:AY119"/>
-    <mergeCell ref="AR123:AU123"/>
-    <mergeCell ref="AV123:AY123"/>
-    <mergeCell ref="AR124:AU124"/>
-    <mergeCell ref="AV124:AY124"/>
-    <mergeCell ref="AR122:AU122"/>
-    <mergeCell ref="AV122:AY122"/>
-    <mergeCell ref="AR120:AU120"/>
-    <mergeCell ref="AV120:AY120"/>
-    <mergeCell ref="AR127:AU127"/>
-    <mergeCell ref="AV127:AY127"/>
-    <mergeCell ref="AR128:AU128"/>
-    <mergeCell ref="AV128:AY128"/>
-    <mergeCell ref="AR129:AU129"/>
-    <mergeCell ref="AV129:AY129"/>
-    <mergeCell ref="AR108:AU108"/>
-    <mergeCell ref="AV108:AY108"/>
-    <mergeCell ref="AR109:AU109"/>
-    <mergeCell ref="AV109:AY109"/>
-    <mergeCell ref="AR110:AU110"/>
-    <mergeCell ref="AV110:AY110"/>
-    <mergeCell ref="AR105:AU105"/>
-    <mergeCell ref="AV105:AY105"/>
-    <mergeCell ref="AR106:AU106"/>
-    <mergeCell ref="AV106:AY106"/>
-    <mergeCell ref="AR107:AU107"/>
-    <mergeCell ref="AV107:AY107"/>
-    <mergeCell ref="AR102:AU102"/>
-    <mergeCell ref="AV102:AY102"/>
-    <mergeCell ref="AR103:AU103"/>
-    <mergeCell ref="AV103:AY103"/>
-    <mergeCell ref="AR104:AU104"/>
-    <mergeCell ref="AV104:AY104"/>
-    <mergeCell ref="AR99:AU99"/>
-    <mergeCell ref="AV99:AY99"/>
-    <mergeCell ref="AR100:AU100"/>
-    <mergeCell ref="AV100:AY100"/>
-    <mergeCell ref="AR101:AU101"/>
-    <mergeCell ref="AV101:AY101"/>
-    <mergeCell ref="AR96:AU96"/>
-    <mergeCell ref="AV96:AY96"/>
-    <mergeCell ref="AR97:AU97"/>
-    <mergeCell ref="AV97:AY97"/>
-    <mergeCell ref="AR98:AU98"/>
-    <mergeCell ref="AV98:AY98"/>
-    <mergeCell ref="AR93:AU93"/>
-    <mergeCell ref="AV93:AY93"/>
-    <mergeCell ref="AR94:AU94"/>
-    <mergeCell ref="AV94:AY94"/>
-    <mergeCell ref="AR95:AU95"/>
-    <mergeCell ref="AV95:AY95"/>
-    <mergeCell ref="AR90:AU90"/>
-    <mergeCell ref="AV90:AY90"/>
-    <mergeCell ref="AR91:AU91"/>
-    <mergeCell ref="AV91:AY91"/>
-    <mergeCell ref="AR92:AU92"/>
-    <mergeCell ref="AV92:AY92"/>
-    <mergeCell ref="AR87:AU87"/>
-    <mergeCell ref="AV87:AY87"/>
-    <mergeCell ref="AR88:AU88"/>
-    <mergeCell ref="AV88:AY88"/>
-    <mergeCell ref="AR89:AU89"/>
-    <mergeCell ref="AV89:AY89"/>
-    <mergeCell ref="AR84:AU84"/>
-    <mergeCell ref="AV84:AY84"/>
-    <mergeCell ref="AR85:AU85"/>
-    <mergeCell ref="AV85:AY85"/>
-    <mergeCell ref="AR86:AU86"/>
-    <mergeCell ref="AV86:AY86"/>
-    <mergeCell ref="AR81:AU81"/>
-    <mergeCell ref="AV81:AY81"/>
-    <mergeCell ref="AR82:AU82"/>
-    <mergeCell ref="AV82:AY82"/>
-    <mergeCell ref="AR83:AU83"/>
-    <mergeCell ref="AV83:AY83"/>
-    <mergeCell ref="AR78:AU78"/>
-    <mergeCell ref="AV78:AY78"/>
-    <mergeCell ref="AR79:AU79"/>
-    <mergeCell ref="AV79:AY79"/>
-    <mergeCell ref="AR80:AU80"/>
-    <mergeCell ref="AV80:AY80"/>
-    <mergeCell ref="AR75:AU75"/>
-    <mergeCell ref="AV75:AY75"/>
-    <mergeCell ref="AR76:AU76"/>
-    <mergeCell ref="AV76:AY76"/>
-    <mergeCell ref="AR77:AU77"/>
-    <mergeCell ref="AV77:AY77"/>
-    <mergeCell ref="AR72:AU72"/>
-    <mergeCell ref="AV72:AY72"/>
-    <mergeCell ref="AR73:AU73"/>
-    <mergeCell ref="AV73:AY73"/>
-    <mergeCell ref="AR74:AU74"/>
-    <mergeCell ref="AV74:AY74"/>
-    <mergeCell ref="AR69:AU69"/>
-    <mergeCell ref="AV69:AY69"/>
-    <mergeCell ref="AR70:AU70"/>
-    <mergeCell ref="AV70:AY70"/>
-    <mergeCell ref="AR71:AU71"/>
-    <mergeCell ref="AV71:AY71"/>
-    <mergeCell ref="AR62:AU62"/>
-    <mergeCell ref="AV62:AY62"/>
-    <mergeCell ref="AR68:AU68"/>
-    <mergeCell ref="AV68:AY68"/>
-    <mergeCell ref="AR360:AU360"/>
-    <mergeCell ref="AV360:AY360"/>
-    <mergeCell ref="AR361:AU361"/>
-    <mergeCell ref="AV361:AY361"/>
-    <mergeCell ref="AR222:AU222"/>
-    <mergeCell ref="AV222:AY222"/>
-    <mergeCell ref="AR223:AU223"/>
-    <mergeCell ref="AV223:AY223"/>
-    <mergeCell ref="AR224:AU224"/>
-    <mergeCell ref="AV224:AY224"/>
-    <mergeCell ref="AR220:AU220"/>
-    <mergeCell ref="AV220:AY220"/>
-    <mergeCell ref="AR221:AU221"/>
-    <mergeCell ref="AV221:AY221"/>
-    <mergeCell ref="AR65:AU65"/>
-    <mergeCell ref="AV65:AY65"/>
-    <mergeCell ref="AR66:AU66"/>
-    <mergeCell ref="AV66:AY66"/>
-    <mergeCell ref="AR67:AU67"/>
-    <mergeCell ref="AV67:AY67"/>
-    <mergeCell ref="AR38:AU38"/>
-    <mergeCell ref="AV38:AY38"/>
-    <mergeCell ref="AR34:AU34"/>
-    <mergeCell ref="AV34:AY34"/>
-    <mergeCell ref="AR35:AU35"/>
-    <mergeCell ref="AV35:AY35"/>
-    <mergeCell ref="AR47:AU47"/>
-    <mergeCell ref="AV47:AY47"/>
-    <mergeCell ref="AR42:AU42"/>
-    <mergeCell ref="AV42:AY42"/>
-    <mergeCell ref="AR43:AU43"/>
-    <mergeCell ref="AV43:AY43"/>
-    <mergeCell ref="AR44:AU44"/>
-    <mergeCell ref="AV44:AY44"/>
-    <mergeCell ref="AR39:AU39"/>
-    <mergeCell ref="AV39:AY39"/>
-    <mergeCell ref="AR40:AU40"/>
-    <mergeCell ref="AV40:AY40"/>
-    <mergeCell ref="AR41:AU41"/>
-    <mergeCell ref="AV41:AY41"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:AY45"/>
-    <mergeCell ref="AR46:AU46"/>
-    <mergeCell ref="AV46:AY46"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:AY25"/>
-    <mergeCell ref="AR61:AU61"/>
-    <mergeCell ref="AV61:AY61"/>
-    <mergeCell ref="AR63:AU63"/>
-    <mergeCell ref="AV63:AY63"/>
-    <mergeCell ref="AR64:AU64"/>
-    <mergeCell ref="AV64:AY64"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AV58:AY58"/>
-    <mergeCell ref="AR60:AU60"/>
-    <mergeCell ref="AV60:AY60"/>
-    <mergeCell ref="AR54:AU54"/>
-    <mergeCell ref="AV54:AY54"/>
-    <mergeCell ref="AR55:AU55"/>
-    <mergeCell ref="AV55:AY55"/>
-    <mergeCell ref="AR57:AU57"/>
-    <mergeCell ref="AV57:AY57"/>
-    <mergeCell ref="AR36:AU36"/>
-    <mergeCell ref="AV36:AY36"/>
-    <mergeCell ref="AR37:AU37"/>
-    <mergeCell ref="AV37:AY37"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AV6:AY6"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AV7:AY7"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:V4"/>
-    <mergeCell ref="Y4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:AY9"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AV11:AY11"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AR31:AU31"/>
-    <mergeCell ref="AV31:AY31"/>
-    <mergeCell ref="AR32:AU32"/>
-    <mergeCell ref="AV32:AY32"/>
-    <mergeCell ref="AR33:AU33"/>
-    <mergeCell ref="AV33:AY33"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="AR27:AU27"/>
-    <mergeCell ref="AV27:AY27"/>
-    <mergeCell ref="AR28:AU28"/>
-    <mergeCell ref="AV28:AY28"/>
-    <mergeCell ref="AR29:AU29"/>
-    <mergeCell ref="AV29:AY29"/>
-    <mergeCell ref="AR30:AU30"/>
-    <mergeCell ref="AV30:AY30"/>
-    <mergeCell ref="AR26:AU26"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -21508,11 +21520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -21523,192 +21535,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="61" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="61" t="s">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="76"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="48" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="49" t="s">
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="48" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="79"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="65"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
       <c r="W4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51" t="s">
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51" t="s">
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
     </row>
     <row r="5" spans="1:51" ht="10.5" customHeight="1">
       <c r="A5" s="23">
@@ -21758,14 +21770,14 @@
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="6"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="73"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="59"/>
     </row>
     <row r="6" spans="1:51" ht="10.5" customHeight="1">
       <c r="A6" s="30"/>
@@ -42685,17 +42697,799 @@
       <c r="AO399" s="18"/>
       <c r="AP399" s="18"/>
       <c r="AQ399" s="19"/>
-      <c r="AR399" s="80"/>
-      <c r="AS399" s="81"/>
-      <c r="AT399" s="81"/>
-      <c r="AU399" s="82"/>
-      <c r="AV399" s="83"/>
-      <c r="AW399" s="84"/>
-      <c r="AX399" s="84"/>
-      <c r="AY399" s="85"/>
+      <c r="AR399" s="48"/>
+      <c r="AS399" s="49"/>
+      <c r="AT399" s="49"/>
+      <c r="AU399" s="50"/>
+      <c r="AV399" s="51"/>
+      <c r="AW399" s="52"/>
+      <c r="AX399" s="52"/>
+      <c r="AY399" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="806">
+    <mergeCell ref="AR379:AU379"/>
+    <mergeCell ref="AV379:AY379"/>
+    <mergeCell ref="AR387:AU387"/>
+    <mergeCell ref="AV387:AY387"/>
+    <mergeCell ref="AR261:AU261"/>
+    <mergeCell ref="AV261:AY261"/>
+    <mergeCell ref="AR266:AU266"/>
+    <mergeCell ref="AV266:AY266"/>
+    <mergeCell ref="AR274:AU274"/>
+    <mergeCell ref="AV274:AY274"/>
+    <mergeCell ref="AR283:AU283"/>
+    <mergeCell ref="AV283:AY283"/>
+    <mergeCell ref="AR311:AU311"/>
+    <mergeCell ref="AV311:AY311"/>
+    <mergeCell ref="AR369:AU369"/>
+    <mergeCell ref="AV369:AY369"/>
+    <mergeCell ref="AR326:AU326"/>
+    <mergeCell ref="AV326:AY326"/>
+    <mergeCell ref="AR327:AU327"/>
+    <mergeCell ref="AV327:AY327"/>
+    <mergeCell ref="AR328:AU328"/>
+    <mergeCell ref="AV328:AY328"/>
+    <mergeCell ref="AR329:AU329"/>
+    <mergeCell ref="AV329:AY329"/>
+    <mergeCell ref="AR215:AU215"/>
+    <mergeCell ref="AV215:AY215"/>
+    <mergeCell ref="AR225:AU225"/>
+    <mergeCell ref="AV225:AY225"/>
+    <mergeCell ref="AR233:AU233"/>
+    <mergeCell ref="AV233:AY233"/>
+    <mergeCell ref="AR240:AU240"/>
+    <mergeCell ref="AV240:AY240"/>
+    <mergeCell ref="AR207:AU207"/>
+    <mergeCell ref="AV207:AY207"/>
+    <mergeCell ref="AR210:AU210"/>
+    <mergeCell ref="AV210:AY210"/>
+    <mergeCell ref="AR219:AU219"/>
+    <mergeCell ref="AV219:AY219"/>
+    <mergeCell ref="AR220:AU220"/>
+    <mergeCell ref="AV220:AY220"/>
+    <mergeCell ref="AR221:AU221"/>
+    <mergeCell ref="AV221:AY221"/>
+    <mergeCell ref="AR222:AU222"/>
+    <mergeCell ref="AV222:AY222"/>
+    <mergeCell ref="AR223:AU223"/>
+    <mergeCell ref="AV223:AY223"/>
+    <mergeCell ref="AR168:AU168"/>
+    <mergeCell ref="AV168:AY168"/>
+    <mergeCell ref="AR175:AU175"/>
+    <mergeCell ref="AV175:AY175"/>
+    <mergeCell ref="AR182:AU182"/>
+    <mergeCell ref="AV182:AY182"/>
+    <mergeCell ref="AR188:AU188"/>
+    <mergeCell ref="AV188:AY188"/>
+    <mergeCell ref="AR199:AU199"/>
+    <mergeCell ref="AV199:AY199"/>
+    <mergeCell ref="AR186:AU186"/>
+    <mergeCell ref="AV186:AY186"/>
+    <mergeCell ref="AR176:AU176"/>
+    <mergeCell ref="AV176:AY176"/>
+    <mergeCell ref="AR177:AU177"/>
+    <mergeCell ref="AV177:AY177"/>
+    <mergeCell ref="AR178:AU178"/>
+    <mergeCell ref="AV178:AY178"/>
+    <mergeCell ref="AR179:AU179"/>
+    <mergeCell ref="AV179:AY179"/>
+    <mergeCell ref="AR192:AU192"/>
+    <mergeCell ref="AV192:AY192"/>
+    <mergeCell ref="AR181:AU181"/>
+    <mergeCell ref="AV181:AY181"/>
+    <mergeCell ref="AR113:AU113"/>
+    <mergeCell ref="AV113:AY113"/>
+    <mergeCell ref="AR121:AU121"/>
+    <mergeCell ref="AV121:AY121"/>
+    <mergeCell ref="AR141:AU141"/>
+    <mergeCell ref="AV141:AY141"/>
+    <mergeCell ref="AR149:AU149"/>
+    <mergeCell ref="AV149:AY149"/>
+    <mergeCell ref="AR156:AU156"/>
+    <mergeCell ref="AV156:AY156"/>
+    <mergeCell ref="AR116:AU116"/>
+    <mergeCell ref="AV116:AY116"/>
+    <mergeCell ref="AR117:AU117"/>
+    <mergeCell ref="AV117:AY117"/>
+    <mergeCell ref="AR132:AU132"/>
+    <mergeCell ref="AV132:AY132"/>
+    <mergeCell ref="AR129:AU129"/>
+    <mergeCell ref="AV129:AY129"/>
+    <mergeCell ref="AR136:AU136"/>
+    <mergeCell ref="AV136:AY136"/>
+    <mergeCell ref="AR128:AU128"/>
+    <mergeCell ref="AV128:AY128"/>
+    <mergeCell ref="AR133:AU133"/>
+    <mergeCell ref="AV133:AY133"/>
+    <mergeCell ref="AR86:AU86"/>
+    <mergeCell ref="AV86:AY86"/>
+    <mergeCell ref="AR71:AU71"/>
+    <mergeCell ref="AV71:AY71"/>
+    <mergeCell ref="AR60:AU60"/>
+    <mergeCell ref="AV60:AY60"/>
+    <mergeCell ref="AR32:AU32"/>
+    <mergeCell ref="AV32:AY32"/>
+    <mergeCell ref="AR33:AU33"/>
+    <mergeCell ref="AV33:AY33"/>
+    <mergeCell ref="AV44:AY44"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:AY45"/>
+    <mergeCell ref="AR51:AU51"/>
+    <mergeCell ref="AV51:AY51"/>
+    <mergeCell ref="AR52:AU52"/>
+    <mergeCell ref="AR393:AU393"/>
+    <mergeCell ref="AV393:AY393"/>
+    <mergeCell ref="AR394:AU394"/>
+    <mergeCell ref="AV394:AY394"/>
+    <mergeCell ref="AR395:AU395"/>
+    <mergeCell ref="AV395:AY395"/>
+    <mergeCell ref="AR396:AU396"/>
+    <mergeCell ref="AV396:AY396"/>
+    <mergeCell ref="AR388:AU388"/>
+    <mergeCell ref="AV388:AY388"/>
+    <mergeCell ref="AR389:AU389"/>
+    <mergeCell ref="AV389:AY389"/>
+    <mergeCell ref="AR390:AU390"/>
+    <mergeCell ref="AV390:AY390"/>
+    <mergeCell ref="AR391:AU391"/>
+    <mergeCell ref="AV391:AY391"/>
+    <mergeCell ref="AR392:AU392"/>
+    <mergeCell ref="AV392:AY392"/>
+    <mergeCell ref="AR397:AU397"/>
+    <mergeCell ref="AV397:AY397"/>
+    <mergeCell ref="AR398:AU398"/>
+    <mergeCell ref="AV398:AY398"/>
+    <mergeCell ref="AR376:AU376"/>
+    <mergeCell ref="AV376:AY376"/>
+    <mergeCell ref="AR377:AU377"/>
+    <mergeCell ref="AV377:AY377"/>
+    <mergeCell ref="AR378:AU378"/>
+    <mergeCell ref="AV378:AY378"/>
+    <mergeCell ref="AR385:AU385"/>
+    <mergeCell ref="AV385:AY385"/>
+    <mergeCell ref="AR386:AU386"/>
+    <mergeCell ref="AV386:AY386"/>
+    <mergeCell ref="AR380:AU380"/>
+    <mergeCell ref="AV380:AY380"/>
+    <mergeCell ref="AR381:AU381"/>
+    <mergeCell ref="AV381:AY381"/>
+    <mergeCell ref="AR382:AU382"/>
+    <mergeCell ref="AV382:AY382"/>
+    <mergeCell ref="AR383:AU383"/>
+    <mergeCell ref="AV383:AY383"/>
+    <mergeCell ref="AR384:AU384"/>
+    <mergeCell ref="AV384:AY384"/>
+    <mergeCell ref="AR333:AU333"/>
+    <mergeCell ref="AV333:AY333"/>
+    <mergeCell ref="AR356:AU356"/>
+    <mergeCell ref="AV356:AY356"/>
+    <mergeCell ref="AR350:AU350"/>
+    <mergeCell ref="AV350:AY350"/>
+    <mergeCell ref="AR351:AU351"/>
+    <mergeCell ref="AV351:AY351"/>
+    <mergeCell ref="AR353:AU353"/>
+    <mergeCell ref="AV353:AY353"/>
+    <mergeCell ref="AR354:AU354"/>
+    <mergeCell ref="AV354:AY354"/>
+    <mergeCell ref="AR355:AU355"/>
+    <mergeCell ref="AV355:AY355"/>
+    <mergeCell ref="AR365:AU365"/>
+    <mergeCell ref="AV365:AY365"/>
+    <mergeCell ref="AR366:AU366"/>
+    <mergeCell ref="AV366:AY366"/>
+    <mergeCell ref="AR367:AU367"/>
+    <mergeCell ref="AV367:AY367"/>
+    <mergeCell ref="AR368:AU368"/>
+    <mergeCell ref="AV368:AY368"/>
+    <mergeCell ref="AR357:AU357"/>
+    <mergeCell ref="AV357:AY357"/>
+    <mergeCell ref="AR358:AU358"/>
+    <mergeCell ref="AV358:AY358"/>
+    <mergeCell ref="AR359:AU359"/>
+    <mergeCell ref="AV359:AY359"/>
+    <mergeCell ref="AR360:AU360"/>
+    <mergeCell ref="AV360:AY360"/>
+    <mergeCell ref="AR361:AU361"/>
+    <mergeCell ref="AV361:AY361"/>
+    <mergeCell ref="AR363:AU363"/>
+    <mergeCell ref="AV363:AY363"/>
+    <mergeCell ref="AR362:AU362"/>
+    <mergeCell ref="AV362:AY362"/>
+    <mergeCell ref="AR364:AU364"/>
+    <mergeCell ref="AV364:AY364"/>
+    <mergeCell ref="AR352:AU352"/>
+    <mergeCell ref="AV352:AY352"/>
+    <mergeCell ref="AR348:AU348"/>
+    <mergeCell ref="AV348:AY348"/>
+    <mergeCell ref="AR346:AU346"/>
+    <mergeCell ref="AV346:AY346"/>
+    <mergeCell ref="AR347:AU347"/>
+    <mergeCell ref="AV347:AY347"/>
+    <mergeCell ref="AR345:AU345"/>
+    <mergeCell ref="AV345:AY345"/>
+    <mergeCell ref="AR349:AU349"/>
+    <mergeCell ref="AV349:AY349"/>
+    <mergeCell ref="AR295:AU295"/>
+    <mergeCell ref="AV295:AY295"/>
+    <mergeCell ref="AR336:AU336"/>
+    <mergeCell ref="AV336:AY336"/>
+    <mergeCell ref="AR337:AU337"/>
+    <mergeCell ref="AV337:AY337"/>
+    <mergeCell ref="AR338:AU338"/>
+    <mergeCell ref="AV338:AY338"/>
+    <mergeCell ref="AR339:AU339"/>
+    <mergeCell ref="AV339:AY339"/>
+    <mergeCell ref="AR302:AU302"/>
+    <mergeCell ref="AV302:AY302"/>
+    <mergeCell ref="AR304:AU304"/>
+    <mergeCell ref="AV304:AY304"/>
+    <mergeCell ref="AR305:AU305"/>
+    <mergeCell ref="AV305:AY305"/>
+    <mergeCell ref="AR303:AU303"/>
+    <mergeCell ref="AV303:AY303"/>
+    <mergeCell ref="AR312:AU312"/>
+    <mergeCell ref="AV312:AY312"/>
+    <mergeCell ref="AR321:AU321"/>
+    <mergeCell ref="AV321:AY321"/>
+    <mergeCell ref="AR322:AU322"/>
+    <mergeCell ref="AV322:AY322"/>
+    <mergeCell ref="AR313:AU313"/>
+    <mergeCell ref="AV313:AY313"/>
+    <mergeCell ref="AR317:AU317"/>
+    <mergeCell ref="AV317:AY317"/>
+    <mergeCell ref="AR318:AU318"/>
+    <mergeCell ref="AV318:AY318"/>
+    <mergeCell ref="AR319:AU319"/>
+    <mergeCell ref="AV319:AY319"/>
+    <mergeCell ref="AR320:AU320"/>
+    <mergeCell ref="AV320:AY320"/>
+    <mergeCell ref="AR316:AU316"/>
+    <mergeCell ref="AV316:AY316"/>
+    <mergeCell ref="AR314:AU314"/>
+    <mergeCell ref="AV314:AY314"/>
+    <mergeCell ref="AR315:AU315"/>
+    <mergeCell ref="AV315:AY315"/>
+    <mergeCell ref="AR323:AU323"/>
+    <mergeCell ref="AV323:AY323"/>
+    <mergeCell ref="AR340:AU340"/>
+    <mergeCell ref="AV340:AY340"/>
+    <mergeCell ref="AR342:AU342"/>
+    <mergeCell ref="AV342:AY342"/>
+    <mergeCell ref="AR343:AU343"/>
+    <mergeCell ref="AV343:AY343"/>
+    <mergeCell ref="AR344:AU344"/>
+    <mergeCell ref="AV344:AY344"/>
+    <mergeCell ref="AR324:AU324"/>
+    <mergeCell ref="AV324:AY324"/>
+    <mergeCell ref="AR335:AU335"/>
+    <mergeCell ref="AV335:AY335"/>
+    <mergeCell ref="AR341:AU341"/>
+    <mergeCell ref="AV341:AY341"/>
+    <mergeCell ref="AR330:AU330"/>
+    <mergeCell ref="AV330:AY330"/>
+    <mergeCell ref="AR331:AU331"/>
+    <mergeCell ref="AV331:AY331"/>
+    <mergeCell ref="AR332:AU332"/>
+    <mergeCell ref="AV332:AY332"/>
+    <mergeCell ref="AR334:AU334"/>
+    <mergeCell ref="AV334:AY334"/>
+    <mergeCell ref="AR296:AU296"/>
+    <mergeCell ref="AV296:AY296"/>
+    <mergeCell ref="AR297:AU297"/>
+    <mergeCell ref="AV297:AY297"/>
+    <mergeCell ref="AR309:AU309"/>
+    <mergeCell ref="AV309:AY309"/>
+    <mergeCell ref="AR310:AU310"/>
+    <mergeCell ref="AV310:AY310"/>
+    <mergeCell ref="AR306:AU306"/>
+    <mergeCell ref="AV306:AY306"/>
+    <mergeCell ref="AR307:AU307"/>
+    <mergeCell ref="AV307:AY307"/>
+    <mergeCell ref="AR308:AU308"/>
+    <mergeCell ref="AV308:AY308"/>
+    <mergeCell ref="AR298:AU298"/>
+    <mergeCell ref="AV298:AY298"/>
+    <mergeCell ref="AR299:AU299"/>
+    <mergeCell ref="AV299:AY299"/>
+    <mergeCell ref="AR300:AU300"/>
+    <mergeCell ref="AV300:AY300"/>
+    <mergeCell ref="AR301:AU301"/>
+    <mergeCell ref="AV301:AY301"/>
+    <mergeCell ref="AR275:AU275"/>
+    <mergeCell ref="AV275:AY275"/>
+    <mergeCell ref="AR293:AU293"/>
+    <mergeCell ref="AV293:AY293"/>
+    <mergeCell ref="AR294:AU294"/>
+    <mergeCell ref="AV294:AY294"/>
+    <mergeCell ref="AR291:AU291"/>
+    <mergeCell ref="AV291:AY291"/>
+    <mergeCell ref="AR292:AU292"/>
+    <mergeCell ref="AV292:AY292"/>
+    <mergeCell ref="AR288:AU288"/>
+    <mergeCell ref="AV288:AY288"/>
+    <mergeCell ref="AR276:AU276"/>
+    <mergeCell ref="AV276:AY276"/>
+    <mergeCell ref="AR277:AU277"/>
+    <mergeCell ref="AV277:AY277"/>
+    <mergeCell ref="AR278:AU278"/>
+    <mergeCell ref="AV278:AY278"/>
+    <mergeCell ref="AR289:AU289"/>
+    <mergeCell ref="AV289:AY289"/>
+    <mergeCell ref="AR290:AU290"/>
+    <mergeCell ref="AV290:AY290"/>
+    <mergeCell ref="AR284:AU284"/>
+    <mergeCell ref="AV284:AY284"/>
+    <mergeCell ref="AR286:AU286"/>
+    <mergeCell ref="AV286:AY286"/>
+    <mergeCell ref="AR287:AU287"/>
+    <mergeCell ref="AV287:AY287"/>
+    <mergeCell ref="AR269:AU269"/>
+    <mergeCell ref="AV269:AY269"/>
+    <mergeCell ref="AR271:AU271"/>
+    <mergeCell ref="AV271:AY271"/>
+    <mergeCell ref="AR270:AU270"/>
+    <mergeCell ref="AV270:AY270"/>
+    <mergeCell ref="AR272:AU272"/>
+    <mergeCell ref="AV272:AY272"/>
+    <mergeCell ref="AR273:AU273"/>
+    <mergeCell ref="AV273:AY273"/>
+    <mergeCell ref="AR279:AU279"/>
+    <mergeCell ref="AV279:AY279"/>
+    <mergeCell ref="AR282:AU282"/>
+    <mergeCell ref="AV282:AY282"/>
+    <mergeCell ref="AR281:AU281"/>
+    <mergeCell ref="AV281:AY281"/>
+    <mergeCell ref="AR280:AU280"/>
+    <mergeCell ref="AV280:AY280"/>
+    <mergeCell ref="AR285:AU285"/>
+    <mergeCell ref="AV285:AY285"/>
+    <mergeCell ref="AR130:AU130"/>
+    <mergeCell ref="AV130:AY130"/>
+    <mergeCell ref="AR131:AU131"/>
+    <mergeCell ref="AV131:AY131"/>
+    <mergeCell ref="AR34:AU34"/>
+    <mergeCell ref="AV34:AY34"/>
+    <mergeCell ref="AR35:AU35"/>
+    <mergeCell ref="AV35:AY35"/>
+    <mergeCell ref="AR36:AU36"/>
+    <mergeCell ref="AV36:AY36"/>
+    <mergeCell ref="AR40:AU40"/>
+    <mergeCell ref="AV40:AY40"/>
+    <mergeCell ref="AR41:AU41"/>
+    <mergeCell ref="AV41:AY41"/>
+    <mergeCell ref="AR42:AU42"/>
+    <mergeCell ref="AV42:AY42"/>
+    <mergeCell ref="AR37:AU37"/>
+    <mergeCell ref="AV37:AY37"/>
+    <mergeCell ref="AR78:AU78"/>
+    <mergeCell ref="AV78:AY78"/>
+    <mergeCell ref="AR53:AU53"/>
+    <mergeCell ref="AV53:AY53"/>
+    <mergeCell ref="AR38:AU38"/>
+    <mergeCell ref="AV38:AY38"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:AY25"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:V4"/>
+    <mergeCell ref="Y4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AV7:AY7"/>
+    <mergeCell ref="AR28:AU28"/>
+    <mergeCell ref="AV28:AY28"/>
+    <mergeCell ref="AR90:AU90"/>
+    <mergeCell ref="AV90:AY90"/>
+    <mergeCell ref="AR87:AU87"/>
+    <mergeCell ref="AV87:AY87"/>
+    <mergeCell ref="AR39:AU39"/>
+    <mergeCell ref="AV39:AY39"/>
+    <mergeCell ref="AR82:AU82"/>
+    <mergeCell ref="AV82:AY82"/>
+    <mergeCell ref="AR46:AU46"/>
+    <mergeCell ref="AV46:AY46"/>
+    <mergeCell ref="AR49:AU49"/>
+    <mergeCell ref="AV49:AY49"/>
+    <mergeCell ref="AR50:AU50"/>
+    <mergeCell ref="AV50:AY50"/>
+    <mergeCell ref="AR43:AU43"/>
+    <mergeCell ref="AV43:AY43"/>
+    <mergeCell ref="AR44:AU44"/>
+    <mergeCell ref="AR27:AU27"/>
+    <mergeCell ref="AV27:AY27"/>
+    <mergeCell ref="AR83:AU83"/>
+    <mergeCell ref="AV83:AY83"/>
+    <mergeCell ref="AR84:AU84"/>
+    <mergeCell ref="AV84:AY84"/>
+    <mergeCell ref="AR85:AU85"/>
+    <mergeCell ref="AV85:AY85"/>
+    <mergeCell ref="AR88:AU88"/>
+    <mergeCell ref="AV88:AY88"/>
+    <mergeCell ref="AR65:AU65"/>
+    <mergeCell ref="AV65:AY65"/>
+    <mergeCell ref="AR69:AU69"/>
+    <mergeCell ref="AV69:AY69"/>
+    <mergeCell ref="AR70:AU70"/>
+    <mergeCell ref="AV70:AY70"/>
+    <mergeCell ref="AR77:AU77"/>
+    <mergeCell ref="AV77:AY77"/>
+    <mergeCell ref="AR79:AU79"/>
+    <mergeCell ref="AV79:AY79"/>
+    <mergeCell ref="AR72:AU72"/>
+    <mergeCell ref="AV72:AY72"/>
+    <mergeCell ref="AR73:AU73"/>
+    <mergeCell ref="AV73:AY73"/>
+    <mergeCell ref="AR81:AU81"/>
+    <mergeCell ref="AR76:AU76"/>
+    <mergeCell ref="AR89:AU89"/>
+    <mergeCell ref="AV89:AY89"/>
+    <mergeCell ref="AR94:AU94"/>
+    <mergeCell ref="AV94:AY94"/>
+    <mergeCell ref="AR95:AU95"/>
+    <mergeCell ref="AV95:AY95"/>
+    <mergeCell ref="AR96:AU96"/>
+    <mergeCell ref="AV96:AY96"/>
+    <mergeCell ref="AR91:AU91"/>
+    <mergeCell ref="AV91:AY91"/>
+    <mergeCell ref="AR92:AU92"/>
+    <mergeCell ref="AV92:AY92"/>
+    <mergeCell ref="AR93:AU93"/>
+    <mergeCell ref="AV93:AY93"/>
+    <mergeCell ref="AR100:AU100"/>
+    <mergeCell ref="AV100:AY100"/>
+    <mergeCell ref="AR108:AU108"/>
+    <mergeCell ref="AV108:AY108"/>
+    <mergeCell ref="AR104:AU104"/>
+    <mergeCell ref="AV104:AY104"/>
+    <mergeCell ref="AR97:AU97"/>
+    <mergeCell ref="AV97:AY97"/>
+    <mergeCell ref="AR98:AU98"/>
+    <mergeCell ref="AV98:AY98"/>
+    <mergeCell ref="AR99:AU99"/>
+    <mergeCell ref="AV99:AY99"/>
+    <mergeCell ref="AR103:AU103"/>
+    <mergeCell ref="AV103:AY103"/>
+    <mergeCell ref="AR110:AU110"/>
+    <mergeCell ref="AV110:AY110"/>
+    <mergeCell ref="AR111:AU111"/>
+    <mergeCell ref="AV111:AY111"/>
+    <mergeCell ref="AR106:AU106"/>
+    <mergeCell ref="AV106:AY106"/>
+    <mergeCell ref="AR107:AU107"/>
+    <mergeCell ref="AV107:AY107"/>
+    <mergeCell ref="AR101:AU101"/>
+    <mergeCell ref="AV101:AY101"/>
+    <mergeCell ref="AR102:AU102"/>
+    <mergeCell ref="AV102:AY102"/>
+    <mergeCell ref="AR105:AU105"/>
+    <mergeCell ref="AV105:AY105"/>
+    <mergeCell ref="AR109:AU109"/>
+    <mergeCell ref="AV109:AY109"/>
+    <mergeCell ref="AR112:AU112"/>
+    <mergeCell ref="AV112:AY112"/>
+    <mergeCell ref="AR119:AU119"/>
+    <mergeCell ref="AV119:AY119"/>
+    <mergeCell ref="AR127:AU127"/>
+    <mergeCell ref="AV127:AY127"/>
+    <mergeCell ref="AR118:AU118"/>
+    <mergeCell ref="AV118:AY118"/>
+    <mergeCell ref="AR120:AU120"/>
+    <mergeCell ref="AV120:AY120"/>
+    <mergeCell ref="AR126:AU126"/>
+    <mergeCell ref="AV126:AY126"/>
+    <mergeCell ref="AR123:AU123"/>
+    <mergeCell ref="AV123:AY123"/>
+    <mergeCell ref="AR124:AU124"/>
+    <mergeCell ref="AV124:AY124"/>
+    <mergeCell ref="AR125:AU125"/>
+    <mergeCell ref="AV125:AY125"/>
+    <mergeCell ref="AR115:AU115"/>
+    <mergeCell ref="AV115:AY115"/>
+    <mergeCell ref="AR114:AU114"/>
+    <mergeCell ref="AV114:AY114"/>
+    <mergeCell ref="AR122:AU122"/>
+    <mergeCell ref="AV122:AY122"/>
+    <mergeCell ref="AR144:AU144"/>
+    <mergeCell ref="AV144:AY144"/>
+    <mergeCell ref="AR145:AU145"/>
+    <mergeCell ref="AV145:AY145"/>
+    <mergeCell ref="AR146:AU146"/>
+    <mergeCell ref="AV146:AY146"/>
+    <mergeCell ref="AR134:AU134"/>
+    <mergeCell ref="AV134:AY134"/>
+    <mergeCell ref="AR135:AU135"/>
+    <mergeCell ref="AV135:AY135"/>
+    <mergeCell ref="AR142:AU142"/>
+    <mergeCell ref="AV142:AY142"/>
+    <mergeCell ref="AR139:AU139"/>
+    <mergeCell ref="AV139:AY139"/>
+    <mergeCell ref="AR140:AU140"/>
+    <mergeCell ref="AV140:AY140"/>
+    <mergeCell ref="AR143:AU143"/>
+    <mergeCell ref="AV143:AY143"/>
+    <mergeCell ref="AR138:AU138"/>
+    <mergeCell ref="AV138:AY138"/>
+    <mergeCell ref="AR137:AU137"/>
+    <mergeCell ref="AV137:AY137"/>
+    <mergeCell ref="AR155:AU155"/>
+    <mergeCell ref="AV155:AY155"/>
+    <mergeCell ref="AR147:AU147"/>
+    <mergeCell ref="AV147:AY147"/>
+    <mergeCell ref="AR148:AU148"/>
+    <mergeCell ref="AV148:AY148"/>
+    <mergeCell ref="AR151:AU151"/>
+    <mergeCell ref="AV151:AY151"/>
+    <mergeCell ref="AR152:AU152"/>
+    <mergeCell ref="AV152:AY152"/>
+    <mergeCell ref="AR154:AU154"/>
+    <mergeCell ref="AV154:AY154"/>
+    <mergeCell ref="AR153:AU153"/>
+    <mergeCell ref="AV153:AY153"/>
+    <mergeCell ref="AR167:AU167"/>
+    <mergeCell ref="AV167:AY167"/>
+    <mergeCell ref="AR150:AU150"/>
+    <mergeCell ref="AV150:AY150"/>
+    <mergeCell ref="AR160:AU160"/>
+    <mergeCell ref="AV160:AY160"/>
+    <mergeCell ref="AR161:AU161"/>
+    <mergeCell ref="AV161:AY161"/>
+    <mergeCell ref="AR162:AU162"/>
+    <mergeCell ref="AV162:AY162"/>
+    <mergeCell ref="AR158:AU158"/>
+    <mergeCell ref="AV158:AY158"/>
+    <mergeCell ref="AR159:AU159"/>
+    <mergeCell ref="AV159:AY159"/>
+    <mergeCell ref="AR157:AU157"/>
+    <mergeCell ref="AV157:AY157"/>
+    <mergeCell ref="AR166:AU166"/>
+    <mergeCell ref="AV166:AY166"/>
+    <mergeCell ref="AR164:AU164"/>
+    <mergeCell ref="AV164:AY164"/>
+    <mergeCell ref="AR165:AU165"/>
+    <mergeCell ref="AV165:AY165"/>
+    <mergeCell ref="AR163:AU163"/>
+    <mergeCell ref="AV163:AY163"/>
+    <mergeCell ref="AR190:AU190"/>
+    <mergeCell ref="AV190:AY190"/>
+    <mergeCell ref="AR183:AU183"/>
+    <mergeCell ref="AV183:AY183"/>
+    <mergeCell ref="AR180:AU180"/>
+    <mergeCell ref="AV180:AY180"/>
+    <mergeCell ref="AR187:AU187"/>
+    <mergeCell ref="AV187:AY187"/>
+    <mergeCell ref="AR184:AU184"/>
+    <mergeCell ref="AV184:AY184"/>
+    <mergeCell ref="AR185:AU185"/>
+    <mergeCell ref="AV185:AY185"/>
+    <mergeCell ref="AR169:AU169"/>
+    <mergeCell ref="AV169:AY169"/>
+    <mergeCell ref="AR170:AU170"/>
+    <mergeCell ref="AV170:AY170"/>
+    <mergeCell ref="AR171:AU171"/>
+    <mergeCell ref="AV171:AY171"/>
+    <mergeCell ref="AR172:AU172"/>
+    <mergeCell ref="AV172:AY172"/>
+    <mergeCell ref="AR173:AU173"/>
+    <mergeCell ref="AV173:AY173"/>
+    <mergeCell ref="AR174:AU174"/>
+    <mergeCell ref="AV174:AY174"/>
+    <mergeCell ref="AR201:AU201"/>
+    <mergeCell ref="AV201:AY201"/>
+    <mergeCell ref="AR202:AU202"/>
+    <mergeCell ref="AV202:AY202"/>
+    <mergeCell ref="AR197:AU197"/>
+    <mergeCell ref="AV197:AY197"/>
+    <mergeCell ref="AR198:AU198"/>
+    <mergeCell ref="AV198:AY198"/>
+    <mergeCell ref="AR200:AU200"/>
+    <mergeCell ref="AV200:AY200"/>
+    <mergeCell ref="AR191:AU191"/>
+    <mergeCell ref="AV191:AY191"/>
+    <mergeCell ref="AR195:AU195"/>
+    <mergeCell ref="AV195:AY195"/>
+    <mergeCell ref="AR196:AU196"/>
+    <mergeCell ref="AV196:AY196"/>
+    <mergeCell ref="AR193:AU193"/>
+    <mergeCell ref="AV193:AY193"/>
+    <mergeCell ref="AR194:AU194"/>
+    <mergeCell ref="AV194:AY194"/>
+    <mergeCell ref="AR189:AU189"/>
+    <mergeCell ref="AV189:AY189"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:AY9"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AV11:AY11"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AV81:AY81"/>
+    <mergeCell ref="AR74:AU74"/>
+    <mergeCell ref="AV74:AY74"/>
+    <mergeCell ref="AR75:AU75"/>
+    <mergeCell ref="AV75:AY75"/>
+    <mergeCell ref="AR80:AU80"/>
+    <mergeCell ref="AV80:AY80"/>
+    <mergeCell ref="AR29:AU29"/>
+    <mergeCell ref="AV29:AY29"/>
+    <mergeCell ref="AV52:AY52"/>
+    <mergeCell ref="AR31:AU31"/>
+    <mergeCell ref="AV31:AY31"/>
+    <mergeCell ref="AR54:AU54"/>
+    <mergeCell ref="AV54:AY54"/>
+    <mergeCell ref="AV76:AY76"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="AR30:AU30"/>
+    <mergeCell ref="AV30:AY30"/>
+    <mergeCell ref="AR55:AU55"/>
+    <mergeCell ref="AV55:AY55"/>
+    <mergeCell ref="AR56:AU56"/>
+    <mergeCell ref="AV56:AY56"/>
+    <mergeCell ref="AR48:AU48"/>
+    <mergeCell ref="AV48:AY48"/>
+    <mergeCell ref="AR47:AU47"/>
+    <mergeCell ref="AV47:AY47"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="AV26:AY26"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AR399:AU399"/>
+    <mergeCell ref="AV399:AY399"/>
+    <mergeCell ref="AR57:AU57"/>
+    <mergeCell ref="AV57:AY57"/>
+    <mergeCell ref="AR66:AU66"/>
+    <mergeCell ref="AV66:AY66"/>
+    <mergeCell ref="AR61:AU61"/>
+    <mergeCell ref="AV61:AY61"/>
+    <mergeCell ref="AR62:AU62"/>
+    <mergeCell ref="AV62:AY62"/>
+    <mergeCell ref="AR63:AU63"/>
+    <mergeCell ref="AV63:AY63"/>
+    <mergeCell ref="AR64:AU64"/>
+    <mergeCell ref="AV64:AY64"/>
+    <mergeCell ref="AR67:AU67"/>
+    <mergeCell ref="AV67:AY67"/>
+    <mergeCell ref="AR68:AU68"/>
+    <mergeCell ref="AV68:AY68"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AV58:AY58"/>
+    <mergeCell ref="AR59:AU59"/>
+    <mergeCell ref="AV59:AY59"/>
+    <mergeCell ref="AR211:AU211"/>
+    <mergeCell ref="AV211:AY211"/>
+    <mergeCell ref="AR203:AU203"/>
+    <mergeCell ref="AV203:AY203"/>
+    <mergeCell ref="AR204:AU204"/>
+    <mergeCell ref="AV204:AY204"/>
+    <mergeCell ref="AR205:AU205"/>
+    <mergeCell ref="AV205:AY205"/>
+    <mergeCell ref="AR218:AU218"/>
+    <mergeCell ref="AV218:AY218"/>
+    <mergeCell ref="AR216:AU216"/>
+    <mergeCell ref="AV216:AY216"/>
+    <mergeCell ref="AR217:AU217"/>
+    <mergeCell ref="AV217:AY217"/>
+    <mergeCell ref="AR214:AU214"/>
+    <mergeCell ref="AV214:AY214"/>
+    <mergeCell ref="AR212:AU212"/>
+    <mergeCell ref="AV212:AY212"/>
+    <mergeCell ref="AR213:AU213"/>
+    <mergeCell ref="AV213:AY213"/>
+    <mergeCell ref="AR209:AU209"/>
+    <mergeCell ref="AV209:AY209"/>
+    <mergeCell ref="AR208:AU208"/>
+    <mergeCell ref="AV208:AY208"/>
+    <mergeCell ref="AR206:AU206"/>
+    <mergeCell ref="AV206:AY206"/>
+    <mergeCell ref="AR224:AU224"/>
+    <mergeCell ref="AV224:AY224"/>
+    <mergeCell ref="AR226:AU226"/>
+    <mergeCell ref="AV226:AY226"/>
+    <mergeCell ref="AR227:AU227"/>
+    <mergeCell ref="AV227:AY227"/>
+    <mergeCell ref="AR228:AU228"/>
+    <mergeCell ref="AV228:AY228"/>
+    <mergeCell ref="AR229:AU229"/>
+    <mergeCell ref="AV229:AY229"/>
+    <mergeCell ref="AR235:AU235"/>
+    <mergeCell ref="AV235:AY235"/>
+    <mergeCell ref="AR236:AU236"/>
+    <mergeCell ref="AV236:AY236"/>
+    <mergeCell ref="AR237:AU237"/>
+    <mergeCell ref="AV237:AY237"/>
+    <mergeCell ref="AR238:AU238"/>
+    <mergeCell ref="AV238:AY238"/>
+    <mergeCell ref="AR230:AU230"/>
+    <mergeCell ref="AV230:AY230"/>
+    <mergeCell ref="AR231:AU231"/>
+    <mergeCell ref="AV231:AY231"/>
+    <mergeCell ref="AR232:AU232"/>
+    <mergeCell ref="AV232:AY232"/>
+    <mergeCell ref="AR234:AU234"/>
+    <mergeCell ref="AV234:AY234"/>
+    <mergeCell ref="AR239:AU239"/>
+    <mergeCell ref="AV239:AY239"/>
+    <mergeCell ref="AR257:AU257"/>
+    <mergeCell ref="AV257:AY257"/>
+    <mergeCell ref="AR258:AU258"/>
+    <mergeCell ref="AV258:AY258"/>
+    <mergeCell ref="AR325:AU325"/>
+    <mergeCell ref="AV325:AY325"/>
+    <mergeCell ref="AR242:AU242"/>
+    <mergeCell ref="AV242:AY242"/>
+    <mergeCell ref="AR243:AU243"/>
+    <mergeCell ref="AV243:AY243"/>
+    <mergeCell ref="AR244:AU244"/>
+    <mergeCell ref="AV244:AY244"/>
+    <mergeCell ref="AR245:AU245"/>
+    <mergeCell ref="AV245:AY245"/>
+    <mergeCell ref="AR246:AU246"/>
+    <mergeCell ref="AV246:AY246"/>
+    <mergeCell ref="AR250:AU250"/>
+    <mergeCell ref="AV250:AY250"/>
+    <mergeCell ref="AR248:AU248"/>
+    <mergeCell ref="AV248:AY248"/>
+    <mergeCell ref="AR247:AU247"/>
+    <mergeCell ref="AV247:AY247"/>
+    <mergeCell ref="AR241:AU241"/>
+    <mergeCell ref="AV241:AY241"/>
+    <mergeCell ref="AR260:AU260"/>
+    <mergeCell ref="AV260:AY260"/>
+    <mergeCell ref="AR251:AU251"/>
+    <mergeCell ref="AV251:AY251"/>
+    <mergeCell ref="AR252:AU252"/>
+    <mergeCell ref="AV252:AY252"/>
+    <mergeCell ref="AR255:AU255"/>
+    <mergeCell ref="AV255:AY255"/>
+    <mergeCell ref="AR256:AU256"/>
+    <mergeCell ref="AV256:AY256"/>
+    <mergeCell ref="AR249:AU249"/>
+    <mergeCell ref="AV249:AY249"/>
+    <mergeCell ref="AR259:AU259"/>
+    <mergeCell ref="AV259:AY259"/>
+    <mergeCell ref="AR253:AU253"/>
+    <mergeCell ref="AV253:AY253"/>
+    <mergeCell ref="AR254:AU254"/>
+    <mergeCell ref="AV254:AY254"/>
     <mergeCell ref="AR262:AU262"/>
     <mergeCell ref="AV262:AY262"/>
     <mergeCell ref="AR263:AU263"/>
@@ -42720,788 +43514,6 @@
     <mergeCell ref="AV267:AY267"/>
     <mergeCell ref="AR268:AU268"/>
     <mergeCell ref="AV268:AY268"/>
-    <mergeCell ref="AR241:AU241"/>
-    <mergeCell ref="AV241:AY241"/>
-    <mergeCell ref="AR260:AU260"/>
-    <mergeCell ref="AV260:AY260"/>
-    <mergeCell ref="AR251:AU251"/>
-    <mergeCell ref="AV251:AY251"/>
-    <mergeCell ref="AR252:AU252"/>
-    <mergeCell ref="AV252:AY252"/>
-    <mergeCell ref="AR255:AU255"/>
-    <mergeCell ref="AV255:AY255"/>
-    <mergeCell ref="AR256:AU256"/>
-    <mergeCell ref="AV256:AY256"/>
-    <mergeCell ref="AR249:AU249"/>
-    <mergeCell ref="AV249:AY249"/>
-    <mergeCell ref="AR259:AU259"/>
-    <mergeCell ref="AV259:AY259"/>
-    <mergeCell ref="AR253:AU253"/>
-    <mergeCell ref="AV253:AY253"/>
-    <mergeCell ref="AR254:AU254"/>
-    <mergeCell ref="AV254:AY254"/>
-    <mergeCell ref="AR239:AU239"/>
-    <mergeCell ref="AV239:AY239"/>
-    <mergeCell ref="AR257:AU257"/>
-    <mergeCell ref="AV257:AY257"/>
-    <mergeCell ref="AR258:AU258"/>
-    <mergeCell ref="AV258:AY258"/>
-    <mergeCell ref="AR325:AU325"/>
-    <mergeCell ref="AV325:AY325"/>
-    <mergeCell ref="AR242:AU242"/>
-    <mergeCell ref="AV242:AY242"/>
-    <mergeCell ref="AR243:AU243"/>
-    <mergeCell ref="AV243:AY243"/>
-    <mergeCell ref="AR244:AU244"/>
-    <mergeCell ref="AV244:AY244"/>
-    <mergeCell ref="AR245:AU245"/>
-    <mergeCell ref="AV245:AY245"/>
-    <mergeCell ref="AR246:AU246"/>
-    <mergeCell ref="AV246:AY246"/>
-    <mergeCell ref="AR250:AU250"/>
-    <mergeCell ref="AV250:AY250"/>
-    <mergeCell ref="AR248:AU248"/>
-    <mergeCell ref="AV248:AY248"/>
-    <mergeCell ref="AR247:AU247"/>
-    <mergeCell ref="AV247:AY247"/>
-    <mergeCell ref="AR235:AU235"/>
-    <mergeCell ref="AV235:AY235"/>
-    <mergeCell ref="AR236:AU236"/>
-    <mergeCell ref="AV236:AY236"/>
-    <mergeCell ref="AR237:AU237"/>
-    <mergeCell ref="AV237:AY237"/>
-    <mergeCell ref="AR238:AU238"/>
-    <mergeCell ref="AV238:AY238"/>
-    <mergeCell ref="AR230:AU230"/>
-    <mergeCell ref="AV230:AY230"/>
-    <mergeCell ref="AR231:AU231"/>
-    <mergeCell ref="AV231:AY231"/>
-    <mergeCell ref="AR232:AU232"/>
-    <mergeCell ref="AV232:AY232"/>
-    <mergeCell ref="AR234:AU234"/>
-    <mergeCell ref="AV234:AY234"/>
-    <mergeCell ref="AR224:AU224"/>
-    <mergeCell ref="AV224:AY224"/>
-    <mergeCell ref="AR226:AU226"/>
-    <mergeCell ref="AV226:AY226"/>
-    <mergeCell ref="AR227:AU227"/>
-    <mergeCell ref="AV227:AY227"/>
-    <mergeCell ref="AR228:AU228"/>
-    <mergeCell ref="AV228:AY228"/>
-    <mergeCell ref="AR229:AU229"/>
-    <mergeCell ref="AV229:AY229"/>
-    <mergeCell ref="AR203:AU203"/>
-    <mergeCell ref="AV203:AY203"/>
-    <mergeCell ref="AR204:AU204"/>
-    <mergeCell ref="AV204:AY204"/>
-    <mergeCell ref="AR205:AU205"/>
-    <mergeCell ref="AV205:AY205"/>
-    <mergeCell ref="AR218:AU218"/>
-    <mergeCell ref="AV218:AY218"/>
-    <mergeCell ref="AR216:AU216"/>
-    <mergeCell ref="AV216:AY216"/>
-    <mergeCell ref="AR217:AU217"/>
-    <mergeCell ref="AV217:AY217"/>
-    <mergeCell ref="AR214:AU214"/>
-    <mergeCell ref="AV214:AY214"/>
-    <mergeCell ref="AR212:AU212"/>
-    <mergeCell ref="AV212:AY212"/>
-    <mergeCell ref="AR213:AU213"/>
-    <mergeCell ref="AV213:AY213"/>
-    <mergeCell ref="AR209:AU209"/>
-    <mergeCell ref="AV209:AY209"/>
-    <mergeCell ref="AR208:AU208"/>
-    <mergeCell ref="AV208:AY208"/>
-    <mergeCell ref="AR399:AU399"/>
-    <mergeCell ref="AV399:AY399"/>
-    <mergeCell ref="AR57:AU57"/>
-    <mergeCell ref="AV57:AY57"/>
-    <mergeCell ref="AR66:AU66"/>
-    <mergeCell ref="AV66:AY66"/>
-    <mergeCell ref="AR61:AU61"/>
-    <mergeCell ref="AV61:AY61"/>
-    <mergeCell ref="AR62:AU62"/>
-    <mergeCell ref="AV62:AY62"/>
-    <mergeCell ref="AR63:AU63"/>
-    <mergeCell ref="AV63:AY63"/>
-    <mergeCell ref="AR64:AU64"/>
-    <mergeCell ref="AV64:AY64"/>
-    <mergeCell ref="AR67:AU67"/>
-    <mergeCell ref="AV67:AY67"/>
-    <mergeCell ref="AR68:AU68"/>
-    <mergeCell ref="AV68:AY68"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AV58:AY58"/>
-    <mergeCell ref="AR59:AU59"/>
-    <mergeCell ref="AV59:AY59"/>
-    <mergeCell ref="AR211:AU211"/>
-    <mergeCell ref="AV211:AY211"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AR30:AU30"/>
-    <mergeCell ref="AV30:AY30"/>
-    <mergeCell ref="AR55:AU55"/>
-    <mergeCell ref="AV55:AY55"/>
-    <mergeCell ref="AR56:AU56"/>
-    <mergeCell ref="AV56:AY56"/>
-    <mergeCell ref="AR48:AU48"/>
-    <mergeCell ref="AV48:AY48"/>
-    <mergeCell ref="AR47:AU47"/>
-    <mergeCell ref="AV47:AY47"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="AV81:AY81"/>
-    <mergeCell ref="AR74:AU74"/>
-    <mergeCell ref="AV74:AY74"/>
-    <mergeCell ref="AR75:AU75"/>
-    <mergeCell ref="AV75:AY75"/>
-    <mergeCell ref="AR80:AU80"/>
-    <mergeCell ref="AV80:AY80"/>
-    <mergeCell ref="AR29:AU29"/>
-    <mergeCell ref="AV29:AY29"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:AY9"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AV11:AY11"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AR174:AU174"/>
-    <mergeCell ref="AV174:AY174"/>
-    <mergeCell ref="AR201:AU201"/>
-    <mergeCell ref="AV201:AY201"/>
-    <mergeCell ref="AR202:AU202"/>
-    <mergeCell ref="AV202:AY202"/>
-    <mergeCell ref="AR197:AU197"/>
-    <mergeCell ref="AV197:AY197"/>
-    <mergeCell ref="AR198:AU198"/>
-    <mergeCell ref="AV198:AY198"/>
-    <mergeCell ref="AR200:AU200"/>
-    <mergeCell ref="AV200:AY200"/>
-    <mergeCell ref="AR191:AU191"/>
-    <mergeCell ref="AV191:AY191"/>
-    <mergeCell ref="AR195:AU195"/>
-    <mergeCell ref="AV195:AY195"/>
-    <mergeCell ref="AR196:AU196"/>
-    <mergeCell ref="AV196:AY196"/>
-    <mergeCell ref="AR169:AU169"/>
-    <mergeCell ref="AV169:AY169"/>
-    <mergeCell ref="AR170:AU170"/>
-    <mergeCell ref="AV170:AY170"/>
-    <mergeCell ref="AR171:AU171"/>
-    <mergeCell ref="AV171:AY171"/>
-    <mergeCell ref="AR172:AU172"/>
-    <mergeCell ref="AV172:AY172"/>
-    <mergeCell ref="AR173:AU173"/>
-    <mergeCell ref="AV173:AY173"/>
-    <mergeCell ref="AR193:AU193"/>
-    <mergeCell ref="AV193:AY193"/>
-    <mergeCell ref="AR194:AU194"/>
-    <mergeCell ref="AV194:AY194"/>
-    <mergeCell ref="AR189:AU189"/>
-    <mergeCell ref="AV189:AY189"/>
-    <mergeCell ref="AR190:AU190"/>
-    <mergeCell ref="AV190:AY190"/>
-    <mergeCell ref="AR183:AU183"/>
-    <mergeCell ref="AV183:AY183"/>
-    <mergeCell ref="AR180:AU180"/>
-    <mergeCell ref="AV180:AY180"/>
-    <mergeCell ref="AR187:AU187"/>
-    <mergeCell ref="AV187:AY187"/>
-    <mergeCell ref="AR184:AU184"/>
-    <mergeCell ref="AV184:AY184"/>
-    <mergeCell ref="AR185:AU185"/>
-    <mergeCell ref="AV185:AY185"/>
-    <mergeCell ref="AR167:AU167"/>
-    <mergeCell ref="AV167:AY167"/>
-    <mergeCell ref="AR150:AU150"/>
-    <mergeCell ref="AV150:AY150"/>
-    <mergeCell ref="AR160:AU160"/>
-    <mergeCell ref="AV160:AY160"/>
-    <mergeCell ref="AR161:AU161"/>
-    <mergeCell ref="AV161:AY161"/>
-    <mergeCell ref="AR162:AU162"/>
-    <mergeCell ref="AV162:AY162"/>
-    <mergeCell ref="AR158:AU158"/>
-    <mergeCell ref="AV158:AY158"/>
-    <mergeCell ref="AR159:AU159"/>
-    <mergeCell ref="AV159:AY159"/>
-    <mergeCell ref="AR157:AU157"/>
-    <mergeCell ref="AV157:AY157"/>
-    <mergeCell ref="AR166:AU166"/>
-    <mergeCell ref="AV166:AY166"/>
-    <mergeCell ref="AR164:AU164"/>
-    <mergeCell ref="AV164:AY164"/>
-    <mergeCell ref="AR165:AU165"/>
-    <mergeCell ref="AV165:AY165"/>
-    <mergeCell ref="AR163:AU163"/>
-    <mergeCell ref="AV163:AY163"/>
-    <mergeCell ref="AR155:AU155"/>
-    <mergeCell ref="AV155:AY155"/>
-    <mergeCell ref="AR147:AU147"/>
-    <mergeCell ref="AV147:AY147"/>
-    <mergeCell ref="AR148:AU148"/>
-    <mergeCell ref="AV148:AY148"/>
-    <mergeCell ref="AR151:AU151"/>
-    <mergeCell ref="AV151:AY151"/>
-    <mergeCell ref="AR152:AU152"/>
-    <mergeCell ref="AV152:AY152"/>
-    <mergeCell ref="AR154:AU154"/>
-    <mergeCell ref="AV154:AY154"/>
-    <mergeCell ref="AR153:AU153"/>
-    <mergeCell ref="AV153:AY153"/>
-    <mergeCell ref="AR144:AU144"/>
-    <mergeCell ref="AV144:AY144"/>
-    <mergeCell ref="AR145:AU145"/>
-    <mergeCell ref="AV145:AY145"/>
-    <mergeCell ref="AR146:AU146"/>
-    <mergeCell ref="AV146:AY146"/>
-    <mergeCell ref="AR134:AU134"/>
-    <mergeCell ref="AV134:AY134"/>
-    <mergeCell ref="AR135:AU135"/>
-    <mergeCell ref="AV135:AY135"/>
-    <mergeCell ref="AR142:AU142"/>
-    <mergeCell ref="AV142:AY142"/>
-    <mergeCell ref="AR139:AU139"/>
-    <mergeCell ref="AV139:AY139"/>
-    <mergeCell ref="AR140:AU140"/>
-    <mergeCell ref="AV140:AY140"/>
-    <mergeCell ref="AR143:AU143"/>
-    <mergeCell ref="AV143:AY143"/>
-    <mergeCell ref="AR138:AU138"/>
-    <mergeCell ref="AV138:AY138"/>
-    <mergeCell ref="AR137:AU137"/>
-    <mergeCell ref="AV137:AY137"/>
-    <mergeCell ref="AR112:AU112"/>
-    <mergeCell ref="AV112:AY112"/>
-    <mergeCell ref="AR119:AU119"/>
-    <mergeCell ref="AV119:AY119"/>
-    <mergeCell ref="AR127:AU127"/>
-    <mergeCell ref="AV127:AY127"/>
-    <mergeCell ref="AR118:AU118"/>
-    <mergeCell ref="AV118:AY118"/>
-    <mergeCell ref="AR120:AU120"/>
-    <mergeCell ref="AV120:AY120"/>
-    <mergeCell ref="AR126:AU126"/>
-    <mergeCell ref="AV126:AY126"/>
-    <mergeCell ref="AR123:AU123"/>
-    <mergeCell ref="AV123:AY123"/>
-    <mergeCell ref="AR124:AU124"/>
-    <mergeCell ref="AV124:AY124"/>
-    <mergeCell ref="AR125:AU125"/>
-    <mergeCell ref="AV125:AY125"/>
-    <mergeCell ref="AR115:AU115"/>
-    <mergeCell ref="AV115:AY115"/>
-    <mergeCell ref="AR114:AU114"/>
-    <mergeCell ref="AV114:AY114"/>
-    <mergeCell ref="AR122:AU122"/>
-    <mergeCell ref="AV122:AY122"/>
-    <mergeCell ref="AR110:AU110"/>
-    <mergeCell ref="AV110:AY110"/>
-    <mergeCell ref="AR111:AU111"/>
-    <mergeCell ref="AV111:AY111"/>
-    <mergeCell ref="AR106:AU106"/>
-    <mergeCell ref="AV106:AY106"/>
-    <mergeCell ref="AR107:AU107"/>
-    <mergeCell ref="AV107:AY107"/>
-    <mergeCell ref="AR101:AU101"/>
-    <mergeCell ref="AV101:AY101"/>
-    <mergeCell ref="AR102:AU102"/>
-    <mergeCell ref="AV102:AY102"/>
-    <mergeCell ref="AR105:AU105"/>
-    <mergeCell ref="AV105:AY105"/>
-    <mergeCell ref="AR100:AU100"/>
-    <mergeCell ref="AV100:AY100"/>
-    <mergeCell ref="AR108:AU108"/>
-    <mergeCell ref="AV108:AY108"/>
-    <mergeCell ref="AR104:AU104"/>
-    <mergeCell ref="AV104:AY104"/>
-    <mergeCell ref="AR97:AU97"/>
-    <mergeCell ref="AV97:AY97"/>
-    <mergeCell ref="AR98:AU98"/>
-    <mergeCell ref="AV98:AY98"/>
-    <mergeCell ref="AR99:AU99"/>
-    <mergeCell ref="AV99:AY99"/>
-    <mergeCell ref="AR103:AU103"/>
-    <mergeCell ref="AV103:AY103"/>
-    <mergeCell ref="AR89:AU89"/>
-    <mergeCell ref="AV89:AY89"/>
-    <mergeCell ref="AR94:AU94"/>
-    <mergeCell ref="AV94:AY94"/>
-    <mergeCell ref="AR95:AU95"/>
-    <mergeCell ref="AV95:AY95"/>
-    <mergeCell ref="AR96:AU96"/>
-    <mergeCell ref="AV96:AY96"/>
-    <mergeCell ref="AR91:AU91"/>
-    <mergeCell ref="AV91:AY91"/>
-    <mergeCell ref="AR92:AU92"/>
-    <mergeCell ref="AV92:AY92"/>
-    <mergeCell ref="AR93:AU93"/>
-    <mergeCell ref="AV93:AY93"/>
-    <mergeCell ref="AV52:AY52"/>
-    <mergeCell ref="AR83:AU83"/>
-    <mergeCell ref="AV83:AY83"/>
-    <mergeCell ref="AR84:AU84"/>
-    <mergeCell ref="AV84:AY84"/>
-    <mergeCell ref="AR85:AU85"/>
-    <mergeCell ref="AV85:AY85"/>
-    <mergeCell ref="AR88:AU88"/>
-    <mergeCell ref="AV88:AY88"/>
-    <mergeCell ref="AR65:AU65"/>
-    <mergeCell ref="AV65:AY65"/>
-    <mergeCell ref="AR69:AU69"/>
-    <mergeCell ref="AV69:AY69"/>
-    <mergeCell ref="AR70:AU70"/>
-    <mergeCell ref="AV70:AY70"/>
-    <mergeCell ref="AR77:AU77"/>
-    <mergeCell ref="AV77:AY77"/>
-    <mergeCell ref="AR79:AU79"/>
-    <mergeCell ref="AV79:AY79"/>
-    <mergeCell ref="AR72:AU72"/>
-    <mergeCell ref="AV72:AY72"/>
-    <mergeCell ref="AR73:AU73"/>
-    <mergeCell ref="AV73:AY73"/>
-    <mergeCell ref="AR81:AU81"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AV7:AY7"/>
-    <mergeCell ref="AR28:AU28"/>
-    <mergeCell ref="AV28:AY28"/>
-    <mergeCell ref="AR90:AU90"/>
-    <mergeCell ref="AV90:AY90"/>
-    <mergeCell ref="AR87:AU87"/>
-    <mergeCell ref="AV87:AY87"/>
-    <mergeCell ref="AR39:AU39"/>
-    <mergeCell ref="AV39:AY39"/>
-    <mergeCell ref="AR82:AU82"/>
-    <mergeCell ref="AV82:AY82"/>
-    <mergeCell ref="AR46:AU46"/>
-    <mergeCell ref="AV46:AY46"/>
-    <mergeCell ref="AR49:AU49"/>
-    <mergeCell ref="AV49:AY49"/>
-    <mergeCell ref="AR50:AU50"/>
-    <mergeCell ref="AV50:AY50"/>
-    <mergeCell ref="AR43:AU43"/>
-    <mergeCell ref="AV43:AY43"/>
-    <mergeCell ref="AR44:AU44"/>
-    <mergeCell ref="AR27:AU27"/>
-    <mergeCell ref="AV27:AY27"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AV6:AY6"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:AY25"/>
-    <mergeCell ref="AR26:AU26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:V4"/>
-    <mergeCell ref="Y4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="AR109:AU109"/>
-    <mergeCell ref="AV109:AY109"/>
-    <mergeCell ref="AR130:AU130"/>
-    <mergeCell ref="AV130:AY130"/>
-    <mergeCell ref="AR131:AU131"/>
-    <mergeCell ref="AV131:AY131"/>
-    <mergeCell ref="AR34:AU34"/>
-    <mergeCell ref="AV34:AY34"/>
-    <mergeCell ref="AR35:AU35"/>
-    <mergeCell ref="AV35:AY35"/>
-    <mergeCell ref="AR36:AU36"/>
-    <mergeCell ref="AV36:AY36"/>
-    <mergeCell ref="AR40:AU40"/>
-    <mergeCell ref="AV40:AY40"/>
-    <mergeCell ref="AR41:AU41"/>
-    <mergeCell ref="AV41:AY41"/>
-    <mergeCell ref="AR42:AU42"/>
-    <mergeCell ref="AV42:AY42"/>
-    <mergeCell ref="AR37:AU37"/>
-    <mergeCell ref="AV37:AY37"/>
-    <mergeCell ref="AR78:AU78"/>
-    <mergeCell ref="AV78:AY78"/>
-    <mergeCell ref="AR53:AU53"/>
-    <mergeCell ref="AV53:AY53"/>
-    <mergeCell ref="AR286:AU286"/>
-    <mergeCell ref="AV286:AY286"/>
-    <mergeCell ref="AR287:AU287"/>
-    <mergeCell ref="AV287:AY287"/>
-    <mergeCell ref="AR269:AU269"/>
-    <mergeCell ref="AV269:AY269"/>
-    <mergeCell ref="AR271:AU271"/>
-    <mergeCell ref="AV271:AY271"/>
-    <mergeCell ref="AR270:AU270"/>
-    <mergeCell ref="AV270:AY270"/>
-    <mergeCell ref="AR272:AU272"/>
-    <mergeCell ref="AV272:AY272"/>
-    <mergeCell ref="AR273:AU273"/>
-    <mergeCell ref="AV273:AY273"/>
-    <mergeCell ref="AR279:AU279"/>
-    <mergeCell ref="AV279:AY279"/>
-    <mergeCell ref="AR282:AU282"/>
-    <mergeCell ref="AV282:AY282"/>
-    <mergeCell ref="AR281:AU281"/>
-    <mergeCell ref="AV281:AY281"/>
-    <mergeCell ref="AR280:AU280"/>
-    <mergeCell ref="AV280:AY280"/>
-    <mergeCell ref="AR285:AU285"/>
-    <mergeCell ref="AV285:AY285"/>
-    <mergeCell ref="AR275:AU275"/>
-    <mergeCell ref="AV275:AY275"/>
-    <mergeCell ref="AR293:AU293"/>
-    <mergeCell ref="AV293:AY293"/>
-    <mergeCell ref="AR294:AU294"/>
-    <mergeCell ref="AV294:AY294"/>
-    <mergeCell ref="AR291:AU291"/>
-    <mergeCell ref="AV291:AY291"/>
-    <mergeCell ref="AR292:AU292"/>
-    <mergeCell ref="AV292:AY292"/>
-    <mergeCell ref="AR288:AU288"/>
-    <mergeCell ref="AV288:AY288"/>
-    <mergeCell ref="AR276:AU276"/>
-    <mergeCell ref="AV276:AY276"/>
-    <mergeCell ref="AR277:AU277"/>
-    <mergeCell ref="AV277:AY277"/>
-    <mergeCell ref="AR278:AU278"/>
-    <mergeCell ref="AV278:AY278"/>
-    <mergeCell ref="AR289:AU289"/>
-    <mergeCell ref="AV289:AY289"/>
-    <mergeCell ref="AR290:AU290"/>
-    <mergeCell ref="AV290:AY290"/>
-    <mergeCell ref="AR284:AU284"/>
-    <mergeCell ref="AV284:AY284"/>
-    <mergeCell ref="AR296:AU296"/>
-    <mergeCell ref="AV296:AY296"/>
-    <mergeCell ref="AR297:AU297"/>
-    <mergeCell ref="AV297:AY297"/>
-    <mergeCell ref="AR309:AU309"/>
-    <mergeCell ref="AV309:AY309"/>
-    <mergeCell ref="AR310:AU310"/>
-    <mergeCell ref="AV310:AY310"/>
-    <mergeCell ref="AR306:AU306"/>
-    <mergeCell ref="AV306:AY306"/>
-    <mergeCell ref="AR307:AU307"/>
-    <mergeCell ref="AV307:AY307"/>
-    <mergeCell ref="AR308:AU308"/>
-    <mergeCell ref="AV308:AY308"/>
-    <mergeCell ref="AR298:AU298"/>
-    <mergeCell ref="AV298:AY298"/>
-    <mergeCell ref="AR299:AU299"/>
-    <mergeCell ref="AV299:AY299"/>
-    <mergeCell ref="AR300:AU300"/>
-    <mergeCell ref="AV300:AY300"/>
-    <mergeCell ref="AR301:AU301"/>
-    <mergeCell ref="AV301:AY301"/>
-    <mergeCell ref="AR323:AU323"/>
-    <mergeCell ref="AV323:AY323"/>
-    <mergeCell ref="AR340:AU340"/>
-    <mergeCell ref="AV340:AY340"/>
-    <mergeCell ref="AR342:AU342"/>
-    <mergeCell ref="AV342:AY342"/>
-    <mergeCell ref="AR343:AU343"/>
-    <mergeCell ref="AV343:AY343"/>
-    <mergeCell ref="AR344:AU344"/>
-    <mergeCell ref="AV344:AY344"/>
-    <mergeCell ref="AR324:AU324"/>
-    <mergeCell ref="AV324:AY324"/>
-    <mergeCell ref="AR335:AU335"/>
-    <mergeCell ref="AV335:AY335"/>
-    <mergeCell ref="AR341:AU341"/>
-    <mergeCell ref="AV341:AY341"/>
-    <mergeCell ref="AR313:AU313"/>
-    <mergeCell ref="AV313:AY313"/>
-    <mergeCell ref="AR317:AU317"/>
-    <mergeCell ref="AV317:AY317"/>
-    <mergeCell ref="AR318:AU318"/>
-    <mergeCell ref="AV318:AY318"/>
-    <mergeCell ref="AR319:AU319"/>
-    <mergeCell ref="AV319:AY319"/>
-    <mergeCell ref="AR320:AU320"/>
-    <mergeCell ref="AV320:AY320"/>
-    <mergeCell ref="AR316:AU316"/>
-    <mergeCell ref="AV316:AY316"/>
-    <mergeCell ref="AR314:AU314"/>
-    <mergeCell ref="AV314:AY314"/>
-    <mergeCell ref="AR315:AU315"/>
-    <mergeCell ref="AV315:AY315"/>
-    <mergeCell ref="AR295:AU295"/>
-    <mergeCell ref="AV295:AY295"/>
-    <mergeCell ref="AR336:AU336"/>
-    <mergeCell ref="AV336:AY336"/>
-    <mergeCell ref="AR337:AU337"/>
-    <mergeCell ref="AV337:AY337"/>
-    <mergeCell ref="AR338:AU338"/>
-    <mergeCell ref="AV338:AY338"/>
-    <mergeCell ref="AR339:AU339"/>
-    <mergeCell ref="AV339:AY339"/>
-    <mergeCell ref="AR302:AU302"/>
-    <mergeCell ref="AV302:AY302"/>
-    <mergeCell ref="AR304:AU304"/>
-    <mergeCell ref="AV304:AY304"/>
-    <mergeCell ref="AR305:AU305"/>
-    <mergeCell ref="AV305:AY305"/>
-    <mergeCell ref="AR303:AU303"/>
-    <mergeCell ref="AV303:AY303"/>
-    <mergeCell ref="AR312:AU312"/>
-    <mergeCell ref="AV312:AY312"/>
-    <mergeCell ref="AR321:AU321"/>
-    <mergeCell ref="AV321:AY321"/>
-    <mergeCell ref="AR322:AU322"/>
-    <mergeCell ref="AV322:AY322"/>
-    <mergeCell ref="AR352:AU352"/>
-    <mergeCell ref="AV352:AY352"/>
-    <mergeCell ref="AR348:AU348"/>
-    <mergeCell ref="AV348:AY348"/>
-    <mergeCell ref="AR346:AU346"/>
-    <mergeCell ref="AV346:AY346"/>
-    <mergeCell ref="AR347:AU347"/>
-    <mergeCell ref="AV347:AY347"/>
-    <mergeCell ref="AR345:AU345"/>
-    <mergeCell ref="AV345:AY345"/>
-    <mergeCell ref="AR349:AU349"/>
-    <mergeCell ref="AV349:AY349"/>
-    <mergeCell ref="AR365:AU365"/>
-    <mergeCell ref="AV365:AY365"/>
-    <mergeCell ref="AR366:AU366"/>
-    <mergeCell ref="AV366:AY366"/>
-    <mergeCell ref="AR367:AU367"/>
-    <mergeCell ref="AV367:AY367"/>
-    <mergeCell ref="AR368:AU368"/>
-    <mergeCell ref="AV368:AY368"/>
-    <mergeCell ref="AR357:AU357"/>
-    <mergeCell ref="AV357:AY357"/>
-    <mergeCell ref="AR358:AU358"/>
-    <mergeCell ref="AV358:AY358"/>
-    <mergeCell ref="AR359:AU359"/>
-    <mergeCell ref="AV359:AY359"/>
-    <mergeCell ref="AR360:AU360"/>
-    <mergeCell ref="AV360:AY360"/>
-    <mergeCell ref="AR361:AU361"/>
-    <mergeCell ref="AV361:AY361"/>
-    <mergeCell ref="AR363:AU363"/>
-    <mergeCell ref="AV363:AY363"/>
-    <mergeCell ref="AR362:AU362"/>
-    <mergeCell ref="AV362:AY362"/>
-    <mergeCell ref="AR330:AU330"/>
-    <mergeCell ref="AV330:AY330"/>
-    <mergeCell ref="AR331:AU331"/>
-    <mergeCell ref="AV331:AY331"/>
-    <mergeCell ref="AR332:AU332"/>
-    <mergeCell ref="AV332:AY332"/>
-    <mergeCell ref="AR364:AU364"/>
-    <mergeCell ref="AV364:AY364"/>
-    <mergeCell ref="AR334:AU334"/>
-    <mergeCell ref="AV334:AY334"/>
-    <mergeCell ref="AR333:AU333"/>
-    <mergeCell ref="AV333:AY333"/>
-    <mergeCell ref="AR356:AU356"/>
-    <mergeCell ref="AV356:AY356"/>
-    <mergeCell ref="AR350:AU350"/>
-    <mergeCell ref="AV350:AY350"/>
-    <mergeCell ref="AR351:AU351"/>
-    <mergeCell ref="AV351:AY351"/>
-    <mergeCell ref="AR353:AU353"/>
-    <mergeCell ref="AV353:AY353"/>
-    <mergeCell ref="AR354:AU354"/>
-    <mergeCell ref="AV354:AY354"/>
-    <mergeCell ref="AR355:AU355"/>
-    <mergeCell ref="AV355:AY355"/>
-    <mergeCell ref="AR397:AU397"/>
-    <mergeCell ref="AV397:AY397"/>
-    <mergeCell ref="AR398:AU398"/>
-    <mergeCell ref="AV398:AY398"/>
-    <mergeCell ref="AR376:AU376"/>
-    <mergeCell ref="AV376:AY376"/>
-    <mergeCell ref="AR377:AU377"/>
-    <mergeCell ref="AV377:AY377"/>
-    <mergeCell ref="AR378:AU378"/>
-    <mergeCell ref="AV378:AY378"/>
-    <mergeCell ref="AR385:AU385"/>
-    <mergeCell ref="AV385:AY385"/>
-    <mergeCell ref="AR386:AU386"/>
-    <mergeCell ref="AV386:AY386"/>
-    <mergeCell ref="AR380:AU380"/>
-    <mergeCell ref="AV380:AY380"/>
-    <mergeCell ref="AR381:AU381"/>
-    <mergeCell ref="AV381:AY381"/>
-    <mergeCell ref="AR382:AU382"/>
-    <mergeCell ref="AV382:AY382"/>
-    <mergeCell ref="AR383:AU383"/>
-    <mergeCell ref="AV383:AY383"/>
-    <mergeCell ref="AR384:AU384"/>
-    <mergeCell ref="AV384:AY384"/>
-    <mergeCell ref="AR393:AU393"/>
-    <mergeCell ref="AV393:AY393"/>
-    <mergeCell ref="AR394:AU394"/>
-    <mergeCell ref="AV394:AY394"/>
-    <mergeCell ref="AR395:AU395"/>
-    <mergeCell ref="AV395:AY395"/>
-    <mergeCell ref="AR396:AU396"/>
-    <mergeCell ref="AV396:AY396"/>
-    <mergeCell ref="AR388:AU388"/>
-    <mergeCell ref="AV388:AY388"/>
-    <mergeCell ref="AR389:AU389"/>
-    <mergeCell ref="AV389:AY389"/>
-    <mergeCell ref="AR390:AU390"/>
-    <mergeCell ref="AV390:AY390"/>
-    <mergeCell ref="AR391:AU391"/>
-    <mergeCell ref="AV391:AY391"/>
-    <mergeCell ref="AR392:AU392"/>
-    <mergeCell ref="AV392:AY392"/>
-    <mergeCell ref="AR31:AU31"/>
-    <mergeCell ref="AV31:AY31"/>
-    <mergeCell ref="AR38:AU38"/>
-    <mergeCell ref="AV38:AY38"/>
-    <mergeCell ref="AR54:AU54"/>
-    <mergeCell ref="AV54:AY54"/>
-    <mergeCell ref="AR76:AU76"/>
-    <mergeCell ref="AV76:AY76"/>
-    <mergeCell ref="AR86:AU86"/>
-    <mergeCell ref="AV86:AY86"/>
-    <mergeCell ref="AR71:AU71"/>
-    <mergeCell ref="AV71:AY71"/>
-    <mergeCell ref="AR60:AU60"/>
-    <mergeCell ref="AV60:AY60"/>
-    <mergeCell ref="AR32:AU32"/>
-    <mergeCell ref="AV32:AY32"/>
-    <mergeCell ref="AR33:AU33"/>
-    <mergeCell ref="AV33:AY33"/>
-    <mergeCell ref="AV44:AY44"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:AY45"/>
-    <mergeCell ref="AR51:AU51"/>
-    <mergeCell ref="AV51:AY51"/>
-    <mergeCell ref="AR52:AU52"/>
-    <mergeCell ref="AR113:AU113"/>
-    <mergeCell ref="AV113:AY113"/>
-    <mergeCell ref="AR121:AU121"/>
-    <mergeCell ref="AV121:AY121"/>
-    <mergeCell ref="AR141:AU141"/>
-    <mergeCell ref="AV141:AY141"/>
-    <mergeCell ref="AR149:AU149"/>
-    <mergeCell ref="AV149:AY149"/>
-    <mergeCell ref="AR156:AU156"/>
-    <mergeCell ref="AV156:AY156"/>
-    <mergeCell ref="AR116:AU116"/>
-    <mergeCell ref="AV116:AY116"/>
-    <mergeCell ref="AR117:AU117"/>
-    <mergeCell ref="AV117:AY117"/>
-    <mergeCell ref="AR132:AU132"/>
-    <mergeCell ref="AV132:AY132"/>
-    <mergeCell ref="AR129:AU129"/>
-    <mergeCell ref="AV129:AY129"/>
-    <mergeCell ref="AR136:AU136"/>
-    <mergeCell ref="AV136:AY136"/>
-    <mergeCell ref="AR128:AU128"/>
-    <mergeCell ref="AV128:AY128"/>
-    <mergeCell ref="AR133:AU133"/>
-    <mergeCell ref="AV133:AY133"/>
-    <mergeCell ref="AR168:AU168"/>
-    <mergeCell ref="AV168:AY168"/>
-    <mergeCell ref="AR175:AU175"/>
-    <mergeCell ref="AV175:AY175"/>
-    <mergeCell ref="AR182:AU182"/>
-    <mergeCell ref="AV182:AY182"/>
-    <mergeCell ref="AR188:AU188"/>
-    <mergeCell ref="AV188:AY188"/>
-    <mergeCell ref="AR199:AU199"/>
-    <mergeCell ref="AV199:AY199"/>
-    <mergeCell ref="AR186:AU186"/>
-    <mergeCell ref="AV186:AY186"/>
-    <mergeCell ref="AR176:AU176"/>
-    <mergeCell ref="AV176:AY176"/>
-    <mergeCell ref="AR177:AU177"/>
-    <mergeCell ref="AV177:AY177"/>
-    <mergeCell ref="AR178:AU178"/>
-    <mergeCell ref="AV178:AY178"/>
-    <mergeCell ref="AR179:AU179"/>
-    <mergeCell ref="AV179:AY179"/>
-    <mergeCell ref="AR192:AU192"/>
-    <mergeCell ref="AV192:AY192"/>
-    <mergeCell ref="AR181:AU181"/>
-    <mergeCell ref="AV181:AY181"/>
-    <mergeCell ref="AR206:AU206"/>
-    <mergeCell ref="AV206:AY206"/>
-    <mergeCell ref="AR215:AU215"/>
-    <mergeCell ref="AV215:AY215"/>
-    <mergeCell ref="AR225:AU225"/>
-    <mergeCell ref="AV225:AY225"/>
-    <mergeCell ref="AR233:AU233"/>
-    <mergeCell ref="AV233:AY233"/>
-    <mergeCell ref="AR240:AU240"/>
-    <mergeCell ref="AV240:AY240"/>
-    <mergeCell ref="AR207:AU207"/>
-    <mergeCell ref="AV207:AY207"/>
-    <mergeCell ref="AR210:AU210"/>
-    <mergeCell ref="AV210:AY210"/>
-    <mergeCell ref="AR219:AU219"/>
-    <mergeCell ref="AV219:AY219"/>
-    <mergeCell ref="AR220:AU220"/>
-    <mergeCell ref="AV220:AY220"/>
-    <mergeCell ref="AR221:AU221"/>
-    <mergeCell ref="AV221:AY221"/>
-    <mergeCell ref="AR222:AU222"/>
-    <mergeCell ref="AV222:AY222"/>
-    <mergeCell ref="AR223:AU223"/>
-    <mergeCell ref="AV223:AY223"/>
-    <mergeCell ref="AR379:AU379"/>
-    <mergeCell ref="AV379:AY379"/>
-    <mergeCell ref="AR387:AU387"/>
-    <mergeCell ref="AV387:AY387"/>
-    <mergeCell ref="AR261:AU261"/>
-    <mergeCell ref="AV261:AY261"/>
-    <mergeCell ref="AR266:AU266"/>
-    <mergeCell ref="AV266:AY266"/>
-    <mergeCell ref="AR274:AU274"/>
-    <mergeCell ref="AV274:AY274"/>
-    <mergeCell ref="AR283:AU283"/>
-    <mergeCell ref="AV283:AY283"/>
-    <mergeCell ref="AR311:AU311"/>
-    <mergeCell ref="AV311:AY311"/>
-    <mergeCell ref="AR369:AU369"/>
-    <mergeCell ref="AV369:AY369"/>
-    <mergeCell ref="AR326:AU326"/>
-    <mergeCell ref="AV326:AY326"/>
-    <mergeCell ref="AR327:AU327"/>
-    <mergeCell ref="AV327:AY327"/>
-    <mergeCell ref="AR328:AU328"/>
-    <mergeCell ref="AV328:AY328"/>
-    <mergeCell ref="AR329:AU329"/>
-    <mergeCell ref="AV329:AY329"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -43513,7 +43525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY221"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -43528,192 +43540,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="61" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="61" t="s">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="76"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="48" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="49" t="s">
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="48" t="s">
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="79"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="65"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
       <c r="W4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51" t="s">
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51" t="s">
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
     </row>
     <row r="5" spans="1:51" ht="10.5" customHeight="1">
       <c r="A5" s="23">
@@ -43763,14 +43775,14 @@
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="6"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="71"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="73"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="59"/>
     </row>
     <row r="6" spans="1:51" ht="10.5" customHeight="1">
       <c r="A6" s="25"/>
@@ -55260,39 +55272,421 @@
       <c r="AO221" s="18"/>
       <c r="AP221" s="18"/>
       <c r="AQ221" s="19"/>
-      <c r="AR221" s="80"/>
-      <c r="AS221" s="81"/>
-      <c r="AT221" s="81"/>
-      <c r="AU221" s="82"/>
-      <c r="AV221" s="83"/>
-      <c r="AW221" s="84"/>
-      <c r="AX221" s="84"/>
-      <c r="AY221" s="85"/>
+      <c r="AR221" s="48"/>
+      <c r="AS221" s="49"/>
+      <c r="AT221" s="49"/>
+      <c r="AU221" s="50"/>
+      <c r="AV221" s="51"/>
+      <c r="AW221" s="52"/>
+      <c r="AX221" s="52"/>
+      <c r="AY221" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="AR216:AU216"/>
-    <mergeCell ref="AV216:AY216"/>
-    <mergeCell ref="AR217:AU217"/>
-    <mergeCell ref="AV217:AY217"/>
-    <mergeCell ref="AR218:AU218"/>
-    <mergeCell ref="AV218:AY218"/>
-    <mergeCell ref="AR213:AU213"/>
-    <mergeCell ref="AV213:AY213"/>
-    <mergeCell ref="AR214:AU214"/>
-    <mergeCell ref="AV214:AY214"/>
-    <mergeCell ref="AR215:AU215"/>
-    <mergeCell ref="AV215:AY215"/>
-    <mergeCell ref="AR211:AU211"/>
-    <mergeCell ref="AV211:AY211"/>
-    <mergeCell ref="AR212:AU212"/>
-    <mergeCell ref="AV212:AY212"/>
-    <mergeCell ref="AR207:AU207"/>
-    <mergeCell ref="AV207:AY207"/>
-    <mergeCell ref="AR208:AU208"/>
-    <mergeCell ref="AV208:AY208"/>
-    <mergeCell ref="AR209:AU209"/>
-    <mergeCell ref="AV209:AY209"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:V4"/>
+    <mergeCell ref="Y4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AR8:AU8"/>
+    <mergeCell ref="AV8:AY8"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:AY9"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR6:AU6"/>
+    <mergeCell ref="AV6:AY6"/>
+    <mergeCell ref="AR7:AU7"/>
+    <mergeCell ref="AV7:AY7"/>
+    <mergeCell ref="AR14:AU14"/>
+    <mergeCell ref="AV14:AY14"/>
+    <mergeCell ref="AR15:AU15"/>
+    <mergeCell ref="AV15:AY15"/>
+    <mergeCell ref="AR16:AU16"/>
+    <mergeCell ref="AV16:AY16"/>
+    <mergeCell ref="AR11:AU11"/>
+    <mergeCell ref="AV11:AY11"/>
+    <mergeCell ref="AR12:AU12"/>
+    <mergeCell ref="AV12:AY12"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:AY13"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="AR29:AU29"/>
+    <mergeCell ref="AV29:AY29"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="AV26:AY26"/>
+    <mergeCell ref="AR27:AU27"/>
+    <mergeCell ref="AV27:AY27"/>
+    <mergeCell ref="AR28:AU28"/>
+    <mergeCell ref="AV28:AY28"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:AY23"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:AY24"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:AY25"/>
+    <mergeCell ref="AR34:AU34"/>
+    <mergeCell ref="AV34:AY34"/>
+    <mergeCell ref="AR37:AU37"/>
+    <mergeCell ref="AV37:AY37"/>
+    <mergeCell ref="AR36:AU36"/>
+    <mergeCell ref="AV36:AY36"/>
+    <mergeCell ref="AR35:AU35"/>
+    <mergeCell ref="AV35:AY35"/>
+    <mergeCell ref="AR30:AU30"/>
+    <mergeCell ref="AV30:AY30"/>
+    <mergeCell ref="AR33:AU33"/>
+    <mergeCell ref="AV33:AY33"/>
+    <mergeCell ref="AR31:AU31"/>
+    <mergeCell ref="AV31:AY31"/>
+    <mergeCell ref="AR32:AU32"/>
+    <mergeCell ref="AV32:AY32"/>
+    <mergeCell ref="AR42:AU42"/>
+    <mergeCell ref="AV42:AY42"/>
+    <mergeCell ref="AR43:AU43"/>
+    <mergeCell ref="AV43:AY43"/>
+    <mergeCell ref="AR38:AU38"/>
+    <mergeCell ref="AV38:AY38"/>
+    <mergeCell ref="AR39:AU39"/>
+    <mergeCell ref="AV39:AY39"/>
+    <mergeCell ref="AR40:AU40"/>
+    <mergeCell ref="AV40:AY40"/>
+    <mergeCell ref="AR41:AU41"/>
+    <mergeCell ref="AV41:AY41"/>
+    <mergeCell ref="AR47:AU47"/>
+    <mergeCell ref="AV47:AY47"/>
+    <mergeCell ref="AR48:AU48"/>
+    <mergeCell ref="AV48:AY48"/>
+    <mergeCell ref="AR49:AU49"/>
+    <mergeCell ref="AV49:AY49"/>
+    <mergeCell ref="AR44:AU44"/>
+    <mergeCell ref="AV44:AY44"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:AY45"/>
+    <mergeCell ref="AR46:AU46"/>
+    <mergeCell ref="AV46:AY46"/>
+    <mergeCell ref="AR53:AU53"/>
+    <mergeCell ref="AV53:AY53"/>
+    <mergeCell ref="AR54:AU54"/>
+    <mergeCell ref="AV54:AY54"/>
+    <mergeCell ref="AR55:AU55"/>
+    <mergeCell ref="AV55:AY55"/>
+    <mergeCell ref="AR50:AU50"/>
+    <mergeCell ref="AV50:AY50"/>
+    <mergeCell ref="AR51:AU51"/>
+    <mergeCell ref="AV51:AY51"/>
+    <mergeCell ref="AR52:AU52"/>
+    <mergeCell ref="AV52:AY52"/>
+    <mergeCell ref="AR59:AU59"/>
+    <mergeCell ref="AV59:AY59"/>
+    <mergeCell ref="AR60:AU60"/>
+    <mergeCell ref="AV60:AY60"/>
+    <mergeCell ref="AR61:AU61"/>
+    <mergeCell ref="AV61:AY61"/>
+    <mergeCell ref="AR56:AU56"/>
+    <mergeCell ref="AV56:AY56"/>
+    <mergeCell ref="AR57:AU57"/>
+    <mergeCell ref="AV57:AY57"/>
+    <mergeCell ref="AR58:AU58"/>
+    <mergeCell ref="AV58:AY58"/>
+    <mergeCell ref="AR65:AU65"/>
+    <mergeCell ref="AV65:AY65"/>
+    <mergeCell ref="AR66:AU66"/>
+    <mergeCell ref="AV66:AY66"/>
+    <mergeCell ref="AR67:AU67"/>
+    <mergeCell ref="AV67:AY67"/>
+    <mergeCell ref="AR62:AU62"/>
+    <mergeCell ref="AV62:AY62"/>
+    <mergeCell ref="AR63:AU63"/>
+    <mergeCell ref="AV63:AY63"/>
+    <mergeCell ref="AR64:AU64"/>
+    <mergeCell ref="AV64:AY64"/>
+    <mergeCell ref="AR71:AU71"/>
+    <mergeCell ref="AV71:AY71"/>
+    <mergeCell ref="AR72:AU72"/>
+    <mergeCell ref="AV72:AY72"/>
+    <mergeCell ref="AR73:AU73"/>
+    <mergeCell ref="AV73:AY73"/>
+    <mergeCell ref="AR68:AU68"/>
+    <mergeCell ref="AV68:AY68"/>
+    <mergeCell ref="AR69:AU69"/>
+    <mergeCell ref="AV69:AY69"/>
+    <mergeCell ref="AR70:AU70"/>
+    <mergeCell ref="AV70:AY70"/>
+    <mergeCell ref="AR77:AU77"/>
+    <mergeCell ref="AV77:AY77"/>
+    <mergeCell ref="AR78:AU78"/>
+    <mergeCell ref="AV78:AY78"/>
+    <mergeCell ref="AR79:AU79"/>
+    <mergeCell ref="AV79:AY79"/>
+    <mergeCell ref="AR74:AU74"/>
+    <mergeCell ref="AV74:AY74"/>
+    <mergeCell ref="AR75:AU75"/>
+    <mergeCell ref="AV75:AY75"/>
+    <mergeCell ref="AR76:AU76"/>
+    <mergeCell ref="AV76:AY76"/>
+    <mergeCell ref="AR86:AU86"/>
+    <mergeCell ref="AV86:AY86"/>
+    <mergeCell ref="AR83:AU83"/>
+    <mergeCell ref="AV83:AY83"/>
+    <mergeCell ref="AR84:AU84"/>
+    <mergeCell ref="AV84:AY84"/>
+    <mergeCell ref="AR85:AU85"/>
+    <mergeCell ref="AV85:AY85"/>
+    <mergeCell ref="AR80:AU80"/>
+    <mergeCell ref="AV80:AY80"/>
+    <mergeCell ref="AR81:AU81"/>
+    <mergeCell ref="AV81:AY81"/>
+    <mergeCell ref="AR82:AU82"/>
+    <mergeCell ref="AV82:AY82"/>
+    <mergeCell ref="AR90:AU90"/>
+    <mergeCell ref="AV90:AY90"/>
+    <mergeCell ref="AR91:AU91"/>
+    <mergeCell ref="AV91:AY91"/>
+    <mergeCell ref="AR92:AU92"/>
+    <mergeCell ref="AV92:AY92"/>
+    <mergeCell ref="AR87:AU87"/>
+    <mergeCell ref="AV87:AY87"/>
+    <mergeCell ref="AR88:AU88"/>
+    <mergeCell ref="AV88:AY88"/>
+    <mergeCell ref="AR89:AU89"/>
+    <mergeCell ref="AV89:AY89"/>
+    <mergeCell ref="AR96:AU96"/>
+    <mergeCell ref="AV96:AY96"/>
+    <mergeCell ref="AR97:AU97"/>
+    <mergeCell ref="AV97:AY97"/>
+    <mergeCell ref="AR100:AU100"/>
+    <mergeCell ref="AV100:AY100"/>
+    <mergeCell ref="AR93:AU93"/>
+    <mergeCell ref="AV93:AY93"/>
+    <mergeCell ref="AR94:AU94"/>
+    <mergeCell ref="AV94:AY94"/>
+    <mergeCell ref="AR95:AU95"/>
+    <mergeCell ref="AV95:AY95"/>
+    <mergeCell ref="AR98:AU98"/>
+    <mergeCell ref="AV98:AY98"/>
+    <mergeCell ref="AR99:AU99"/>
+    <mergeCell ref="AV99:AY99"/>
+    <mergeCell ref="AR104:AU104"/>
+    <mergeCell ref="AV104:AY104"/>
+    <mergeCell ref="AR105:AU105"/>
+    <mergeCell ref="AV105:AY105"/>
+    <mergeCell ref="AR101:AU101"/>
+    <mergeCell ref="AV101:AY101"/>
+    <mergeCell ref="AR102:AU102"/>
+    <mergeCell ref="AV102:AY102"/>
+    <mergeCell ref="AR103:AU103"/>
+    <mergeCell ref="AV103:AY103"/>
+    <mergeCell ref="AR109:AU109"/>
+    <mergeCell ref="AV109:AY109"/>
+    <mergeCell ref="AR110:AU110"/>
+    <mergeCell ref="AV110:AY110"/>
+    <mergeCell ref="AR111:AU111"/>
+    <mergeCell ref="AV111:AY111"/>
+    <mergeCell ref="AR106:AU106"/>
+    <mergeCell ref="AV106:AY106"/>
+    <mergeCell ref="AR107:AU107"/>
+    <mergeCell ref="AV107:AY107"/>
+    <mergeCell ref="AR108:AU108"/>
+    <mergeCell ref="AV108:AY108"/>
+    <mergeCell ref="AR112:AU112"/>
+    <mergeCell ref="AV112:AY112"/>
+    <mergeCell ref="AR134:AU134"/>
+    <mergeCell ref="AV134:AY134"/>
+    <mergeCell ref="AR135:AU135"/>
+    <mergeCell ref="AV135:AY135"/>
+    <mergeCell ref="AR140:AU140"/>
+    <mergeCell ref="AV140:AY140"/>
+    <mergeCell ref="AR141:AU141"/>
+    <mergeCell ref="AV141:AY141"/>
+    <mergeCell ref="AR132:AU132"/>
+    <mergeCell ref="AV132:AY132"/>
+    <mergeCell ref="AR133:AU133"/>
+    <mergeCell ref="AV133:AY133"/>
+    <mergeCell ref="AR113:AU113"/>
+    <mergeCell ref="AV113:AY113"/>
+    <mergeCell ref="AR114:AU114"/>
+    <mergeCell ref="AV114:AY114"/>
+    <mergeCell ref="AR115:AU115"/>
+    <mergeCell ref="AV115:AY115"/>
+    <mergeCell ref="AR130:AU130"/>
+    <mergeCell ref="AV130:AY130"/>
+    <mergeCell ref="AR117:AU117"/>
+    <mergeCell ref="AV117:AY117"/>
+    <mergeCell ref="AR118:AU118"/>
+    <mergeCell ref="AV118:AY118"/>
+    <mergeCell ref="AR119:AU119"/>
+    <mergeCell ref="AV119:AY119"/>
+    <mergeCell ref="AR129:AU129"/>
+    <mergeCell ref="AV129:AY129"/>
+    <mergeCell ref="AR116:AU116"/>
+    <mergeCell ref="AV116:AY116"/>
+    <mergeCell ref="AR123:AU123"/>
+    <mergeCell ref="AV123:AY123"/>
+    <mergeCell ref="AR124:AU124"/>
+    <mergeCell ref="AV124:AY124"/>
+    <mergeCell ref="AR125:AU125"/>
+    <mergeCell ref="AV125:AY125"/>
+    <mergeCell ref="AR126:AU126"/>
+    <mergeCell ref="AV126:AY126"/>
+    <mergeCell ref="AR121:AU121"/>
+    <mergeCell ref="AV121:AY121"/>
+    <mergeCell ref="AR122:AU122"/>
+    <mergeCell ref="AV122:AY122"/>
+    <mergeCell ref="AR120:AU120"/>
+    <mergeCell ref="AV120:AY120"/>
+    <mergeCell ref="AR155:AU155"/>
+    <mergeCell ref="AV155:AY155"/>
+    <mergeCell ref="AR139:AU139"/>
+    <mergeCell ref="AV139:AY139"/>
+    <mergeCell ref="AR146:AU146"/>
+    <mergeCell ref="AV146:AY146"/>
+    <mergeCell ref="AR147:AU147"/>
+    <mergeCell ref="AV147:AY147"/>
+    <mergeCell ref="AR136:AU136"/>
+    <mergeCell ref="AV136:AY136"/>
+    <mergeCell ref="AR137:AU137"/>
+    <mergeCell ref="AV137:AY137"/>
+    <mergeCell ref="AR138:AU138"/>
+    <mergeCell ref="AV138:AY138"/>
+    <mergeCell ref="AR143:AU143"/>
+    <mergeCell ref="AV143:AY143"/>
+    <mergeCell ref="AR142:AU142"/>
+    <mergeCell ref="AV142:AY142"/>
+    <mergeCell ref="AR131:AU131"/>
+    <mergeCell ref="AV131:AY131"/>
+    <mergeCell ref="AR127:AU127"/>
+    <mergeCell ref="AV127:AY127"/>
+    <mergeCell ref="AR128:AU128"/>
+    <mergeCell ref="AV128:AY128"/>
+    <mergeCell ref="AR149:AU149"/>
+    <mergeCell ref="AV149:AY149"/>
+    <mergeCell ref="AR151:AU151"/>
+    <mergeCell ref="AV151:AY151"/>
+    <mergeCell ref="AR148:AU148"/>
+    <mergeCell ref="AV148:AY148"/>
+    <mergeCell ref="AR150:AU150"/>
+    <mergeCell ref="AV150:AY150"/>
+    <mergeCell ref="AR144:AU144"/>
+    <mergeCell ref="AV144:AY144"/>
+    <mergeCell ref="AR145:AU145"/>
+    <mergeCell ref="AV145:AY145"/>
+    <mergeCell ref="AR168:AU168"/>
+    <mergeCell ref="AV168:AY168"/>
+    <mergeCell ref="AR169:AU169"/>
+    <mergeCell ref="AV169:AY169"/>
+    <mergeCell ref="AR170:AU170"/>
+    <mergeCell ref="AV170:AY170"/>
+    <mergeCell ref="AR165:AU165"/>
+    <mergeCell ref="AV165:AY165"/>
+    <mergeCell ref="AR166:AU166"/>
+    <mergeCell ref="AV166:AY166"/>
+    <mergeCell ref="AR221:AU221"/>
+    <mergeCell ref="AV221:AY221"/>
+    <mergeCell ref="AR167:AU167"/>
+    <mergeCell ref="AV167:AY167"/>
+    <mergeCell ref="AR162:AU162"/>
+    <mergeCell ref="AV162:AY162"/>
+    <mergeCell ref="AR163:AU163"/>
+    <mergeCell ref="AV163:AY163"/>
+    <mergeCell ref="AR164:AU164"/>
+    <mergeCell ref="AV164:AY164"/>
+    <mergeCell ref="AR171:AU171"/>
+    <mergeCell ref="AV171:AY171"/>
+    <mergeCell ref="AR176:AU176"/>
+    <mergeCell ref="AV176:AY176"/>
+    <mergeCell ref="AR177:AU177"/>
+    <mergeCell ref="AV177:AY177"/>
+    <mergeCell ref="AR175:AU175"/>
+    <mergeCell ref="AV175:AY175"/>
+    <mergeCell ref="AR179:AU179"/>
+    <mergeCell ref="AV179:AY179"/>
+    <mergeCell ref="AR183:AU183"/>
+    <mergeCell ref="AV183:AY183"/>
+    <mergeCell ref="AR184:AU184"/>
+    <mergeCell ref="AV184:AY184"/>
+    <mergeCell ref="AR159:AU159"/>
+    <mergeCell ref="AV159:AY159"/>
+    <mergeCell ref="AR152:AU152"/>
+    <mergeCell ref="AV152:AY152"/>
+    <mergeCell ref="AR172:AU172"/>
+    <mergeCell ref="AV172:AY172"/>
+    <mergeCell ref="AR173:AU173"/>
+    <mergeCell ref="AV173:AY173"/>
+    <mergeCell ref="AR174:AU174"/>
+    <mergeCell ref="AV174:AY174"/>
+    <mergeCell ref="AR160:AU160"/>
+    <mergeCell ref="AV160:AY160"/>
+    <mergeCell ref="AR161:AU161"/>
+    <mergeCell ref="AV161:AY161"/>
+    <mergeCell ref="AR156:AU156"/>
+    <mergeCell ref="AV156:AY156"/>
+    <mergeCell ref="AR157:AU157"/>
+    <mergeCell ref="AV157:AY157"/>
+    <mergeCell ref="AR158:AU158"/>
+    <mergeCell ref="AV158:AY158"/>
+    <mergeCell ref="AR153:AU153"/>
+    <mergeCell ref="AV153:AY153"/>
+    <mergeCell ref="AR154:AU154"/>
+    <mergeCell ref="AV154:AY154"/>
+    <mergeCell ref="AR185:AU185"/>
+    <mergeCell ref="AV185:AY185"/>
+    <mergeCell ref="AR178:AU178"/>
+    <mergeCell ref="AV178:AY178"/>
+    <mergeCell ref="AR181:AU181"/>
+    <mergeCell ref="AV181:AY181"/>
+    <mergeCell ref="AR182:AU182"/>
+    <mergeCell ref="AV182:AY182"/>
+    <mergeCell ref="AR180:AU180"/>
+    <mergeCell ref="AV180:AY180"/>
+    <mergeCell ref="AR189:AU189"/>
+    <mergeCell ref="AV189:AY189"/>
+    <mergeCell ref="AR190:AU190"/>
+    <mergeCell ref="AV190:AY190"/>
+    <mergeCell ref="AR191:AU191"/>
+    <mergeCell ref="AV191:AY191"/>
+    <mergeCell ref="AR186:AU186"/>
+    <mergeCell ref="AV186:AY186"/>
+    <mergeCell ref="AR187:AU187"/>
+    <mergeCell ref="AV187:AY187"/>
+    <mergeCell ref="AR188:AU188"/>
+    <mergeCell ref="AV188:AY188"/>
+    <mergeCell ref="AR195:AU195"/>
+    <mergeCell ref="AV195:AY195"/>
+    <mergeCell ref="AR196:AU196"/>
+    <mergeCell ref="AV196:AY196"/>
+    <mergeCell ref="AR197:AU197"/>
+    <mergeCell ref="AV197:AY197"/>
+    <mergeCell ref="AR192:AU192"/>
+    <mergeCell ref="AV192:AY192"/>
+    <mergeCell ref="AR193:AU193"/>
+    <mergeCell ref="AV193:AY193"/>
+    <mergeCell ref="AR194:AU194"/>
+    <mergeCell ref="AV194:AY194"/>
     <mergeCell ref="AR198:AU198"/>
     <mergeCell ref="AV198:AY198"/>
     <mergeCell ref="AR199:AU199"/>
@@ -55317,410 +55711,28 @@
     <mergeCell ref="AV203:AY203"/>
     <mergeCell ref="AR210:AU210"/>
     <mergeCell ref="AV210:AY210"/>
-    <mergeCell ref="AR195:AU195"/>
-    <mergeCell ref="AV195:AY195"/>
-    <mergeCell ref="AR196:AU196"/>
-    <mergeCell ref="AV196:AY196"/>
-    <mergeCell ref="AR197:AU197"/>
-    <mergeCell ref="AV197:AY197"/>
-    <mergeCell ref="AR192:AU192"/>
-    <mergeCell ref="AV192:AY192"/>
-    <mergeCell ref="AR193:AU193"/>
-    <mergeCell ref="AV193:AY193"/>
-    <mergeCell ref="AR194:AU194"/>
-    <mergeCell ref="AV194:AY194"/>
-    <mergeCell ref="AR189:AU189"/>
-    <mergeCell ref="AV189:AY189"/>
-    <mergeCell ref="AR190:AU190"/>
-    <mergeCell ref="AV190:AY190"/>
-    <mergeCell ref="AR191:AU191"/>
-    <mergeCell ref="AV191:AY191"/>
-    <mergeCell ref="AR186:AU186"/>
-    <mergeCell ref="AV186:AY186"/>
-    <mergeCell ref="AR187:AU187"/>
-    <mergeCell ref="AV187:AY187"/>
-    <mergeCell ref="AR188:AU188"/>
-    <mergeCell ref="AV188:AY188"/>
-    <mergeCell ref="AR185:AU185"/>
-    <mergeCell ref="AV185:AY185"/>
-    <mergeCell ref="AR178:AU178"/>
-    <mergeCell ref="AV178:AY178"/>
-    <mergeCell ref="AR181:AU181"/>
-    <mergeCell ref="AV181:AY181"/>
-    <mergeCell ref="AR182:AU182"/>
-    <mergeCell ref="AV182:AY182"/>
-    <mergeCell ref="AR180:AU180"/>
-    <mergeCell ref="AV180:AY180"/>
-    <mergeCell ref="AR159:AU159"/>
-    <mergeCell ref="AV159:AY159"/>
-    <mergeCell ref="AR152:AU152"/>
-    <mergeCell ref="AV152:AY152"/>
-    <mergeCell ref="AR172:AU172"/>
-    <mergeCell ref="AV172:AY172"/>
-    <mergeCell ref="AR173:AU173"/>
-    <mergeCell ref="AV173:AY173"/>
-    <mergeCell ref="AR174:AU174"/>
-    <mergeCell ref="AV174:AY174"/>
-    <mergeCell ref="AR160:AU160"/>
-    <mergeCell ref="AV160:AY160"/>
-    <mergeCell ref="AR161:AU161"/>
-    <mergeCell ref="AV161:AY161"/>
-    <mergeCell ref="AR156:AU156"/>
-    <mergeCell ref="AV156:AY156"/>
-    <mergeCell ref="AR157:AU157"/>
-    <mergeCell ref="AV157:AY157"/>
-    <mergeCell ref="AR158:AU158"/>
-    <mergeCell ref="AV158:AY158"/>
-    <mergeCell ref="AR153:AU153"/>
-    <mergeCell ref="AV153:AY153"/>
-    <mergeCell ref="AR154:AU154"/>
-    <mergeCell ref="AV154:AY154"/>
-    <mergeCell ref="AR221:AU221"/>
-    <mergeCell ref="AV221:AY221"/>
-    <mergeCell ref="AR167:AU167"/>
-    <mergeCell ref="AV167:AY167"/>
-    <mergeCell ref="AR162:AU162"/>
-    <mergeCell ref="AV162:AY162"/>
-    <mergeCell ref="AR163:AU163"/>
-    <mergeCell ref="AV163:AY163"/>
-    <mergeCell ref="AR164:AU164"/>
-    <mergeCell ref="AV164:AY164"/>
-    <mergeCell ref="AR171:AU171"/>
-    <mergeCell ref="AV171:AY171"/>
-    <mergeCell ref="AR176:AU176"/>
-    <mergeCell ref="AV176:AY176"/>
-    <mergeCell ref="AR177:AU177"/>
-    <mergeCell ref="AV177:AY177"/>
-    <mergeCell ref="AR175:AU175"/>
-    <mergeCell ref="AV175:AY175"/>
-    <mergeCell ref="AR179:AU179"/>
-    <mergeCell ref="AV179:AY179"/>
-    <mergeCell ref="AR183:AU183"/>
-    <mergeCell ref="AV183:AY183"/>
-    <mergeCell ref="AR184:AU184"/>
-    <mergeCell ref="AV184:AY184"/>
-    <mergeCell ref="AR168:AU168"/>
-    <mergeCell ref="AV168:AY168"/>
-    <mergeCell ref="AR169:AU169"/>
-    <mergeCell ref="AV169:AY169"/>
-    <mergeCell ref="AR170:AU170"/>
-    <mergeCell ref="AV170:AY170"/>
-    <mergeCell ref="AR165:AU165"/>
-    <mergeCell ref="AV165:AY165"/>
-    <mergeCell ref="AR166:AU166"/>
-    <mergeCell ref="AV166:AY166"/>
-    <mergeCell ref="AR131:AU131"/>
-    <mergeCell ref="AV131:AY131"/>
-    <mergeCell ref="AR127:AU127"/>
-    <mergeCell ref="AV127:AY127"/>
-    <mergeCell ref="AR128:AU128"/>
-    <mergeCell ref="AV128:AY128"/>
-    <mergeCell ref="AR149:AU149"/>
-    <mergeCell ref="AV149:AY149"/>
-    <mergeCell ref="AR151:AU151"/>
-    <mergeCell ref="AV151:AY151"/>
-    <mergeCell ref="AR148:AU148"/>
-    <mergeCell ref="AV148:AY148"/>
-    <mergeCell ref="AR150:AU150"/>
-    <mergeCell ref="AV150:AY150"/>
-    <mergeCell ref="AR144:AU144"/>
-    <mergeCell ref="AV144:AY144"/>
-    <mergeCell ref="AR145:AU145"/>
-    <mergeCell ref="AV145:AY145"/>
-    <mergeCell ref="AR155:AU155"/>
-    <mergeCell ref="AV155:AY155"/>
-    <mergeCell ref="AR139:AU139"/>
-    <mergeCell ref="AV139:AY139"/>
-    <mergeCell ref="AR146:AU146"/>
-    <mergeCell ref="AV146:AY146"/>
-    <mergeCell ref="AR147:AU147"/>
-    <mergeCell ref="AV147:AY147"/>
-    <mergeCell ref="AR136:AU136"/>
-    <mergeCell ref="AV136:AY136"/>
-    <mergeCell ref="AR137:AU137"/>
-    <mergeCell ref="AV137:AY137"/>
-    <mergeCell ref="AR138:AU138"/>
-    <mergeCell ref="AV138:AY138"/>
-    <mergeCell ref="AR143:AU143"/>
-    <mergeCell ref="AV143:AY143"/>
-    <mergeCell ref="AR142:AU142"/>
-    <mergeCell ref="AV142:AY142"/>
-    <mergeCell ref="AR118:AU118"/>
-    <mergeCell ref="AV118:AY118"/>
-    <mergeCell ref="AR119:AU119"/>
-    <mergeCell ref="AV119:AY119"/>
-    <mergeCell ref="AR129:AU129"/>
-    <mergeCell ref="AV129:AY129"/>
-    <mergeCell ref="AR116:AU116"/>
-    <mergeCell ref="AV116:AY116"/>
-    <mergeCell ref="AR123:AU123"/>
-    <mergeCell ref="AV123:AY123"/>
-    <mergeCell ref="AR124:AU124"/>
-    <mergeCell ref="AV124:AY124"/>
-    <mergeCell ref="AR125:AU125"/>
-    <mergeCell ref="AV125:AY125"/>
-    <mergeCell ref="AR126:AU126"/>
-    <mergeCell ref="AV126:AY126"/>
-    <mergeCell ref="AR121:AU121"/>
-    <mergeCell ref="AV121:AY121"/>
-    <mergeCell ref="AR122:AU122"/>
-    <mergeCell ref="AV122:AY122"/>
-    <mergeCell ref="AR120:AU120"/>
-    <mergeCell ref="AV120:AY120"/>
-    <mergeCell ref="AR112:AU112"/>
-    <mergeCell ref="AV112:AY112"/>
-    <mergeCell ref="AR134:AU134"/>
-    <mergeCell ref="AV134:AY134"/>
-    <mergeCell ref="AR135:AU135"/>
-    <mergeCell ref="AV135:AY135"/>
-    <mergeCell ref="AR140:AU140"/>
-    <mergeCell ref="AV140:AY140"/>
-    <mergeCell ref="AR141:AU141"/>
-    <mergeCell ref="AV141:AY141"/>
-    <mergeCell ref="AR132:AU132"/>
-    <mergeCell ref="AV132:AY132"/>
-    <mergeCell ref="AR133:AU133"/>
-    <mergeCell ref="AV133:AY133"/>
-    <mergeCell ref="AR113:AU113"/>
-    <mergeCell ref="AV113:AY113"/>
-    <mergeCell ref="AR114:AU114"/>
-    <mergeCell ref="AV114:AY114"/>
-    <mergeCell ref="AR115:AU115"/>
-    <mergeCell ref="AV115:AY115"/>
-    <mergeCell ref="AR130:AU130"/>
-    <mergeCell ref="AV130:AY130"/>
-    <mergeCell ref="AR117:AU117"/>
-    <mergeCell ref="AV117:AY117"/>
-    <mergeCell ref="AR109:AU109"/>
-    <mergeCell ref="AV109:AY109"/>
-    <mergeCell ref="AR110:AU110"/>
-    <mergeCell ref="AV110:AY110"/>
-    <mergeCell ref="AR111:AU111"/>
-    <mergeCell ref="AV111:AY111"/>
-    <mergeCell ref="AR106:AU106"/>
-    <mergeCell ref="AV106:AY106"/>
-    <mergeCell ref="AR107:AU107"/>
-    <mergeCell ref="AV107:AY107"/>
-    <mergeCell ref="AR108:AU108"/>
-    <mergeCell ref="AV108:AY108"/>
-    <mergeCell ref="AR104:AU104"/>
-    <mergeCell ref="AV104:AY104"/>
-    <mergeCell ref="AR105:AU105"/>
-    <mergeCell ref="AV105:AY105"/>
-    <mergeCell ref="AR101:AU101"/>
-    <mergeCell ref="AV101:AY101"/>
-    <mergeCell ref="AR102:AU102"/>
-    <mergeCell ref="AV102:AY102"/>
-    <mergeCell ref="AR103:AU103"/>
-    <mergeCell ref="AV103:AY103"/>
-    <mergeCell ref="AR96:AU96"/>
-    <mergeCell ref="AV96:AY96"/>
-    <mergeCell ref="AR97:AU97"/>
-    <mergeCell ref="AV97:AY97"/>
-    <mergeCell ref="AR100:AU100"/>
-    <mergeCell ref="AV100:AY100"/>
-    <mergeCell ref="AR93:AU93"/>
-    <mergeCell ref="AV93:AY93"/>
-    <mergeCell ref="AR94:AU94"/>
-    <mergeCell ref="AV94:AY94"/>
-    <mergeCell ref="AR95:AU95"/>
-    <mergeCell ref="AV95:AY95"/>
-    <mergeCell ref="AR98:AU98"/>
-    <mergeCell ref="AV98:AY98"/>
-    <mergeCell ref="AR99:AU99"/>
-    <mergeCell ref="AV99:AY99"/>
-    <mergeCell ref="AR90:AU90"/>
-    <mergeCell ref="AV90:AY90"/>
-    <mergeCell ref="AR91:AU91"/>
-    <mergeCell ref="AV91:AY91"/>
-    <mergeCell ref="AR92:AU92"/>
-    <mergeCell ref="AV92:AY92"/>
-    <mergeCell ref="AR87:AU87"/>
-    <mergeCell ref="AV87:AY87"/>
-    <mergeCell ref="AR88:AU88"/>
-    <mergeCell ref="AV88:AY88"/>
-    <mergeCell ref="AR89:AU89"/>
-    <mergeCell ref="AV89:AY89"/>
-    <mergeCell ref="AR86:AU86"/>
-    <mergeCell ref="AV86:AY86"/>
-    <mergeCell ref="AR83:AU83"/>
-    <mergeCell ref="AV83:AY83"/>
-    <mergeCell ref="AR84:AU84"/>
-    <mergeCell ref="AV84:AY84"/>
-    <mergeCell ref="AR85:AU85"/>
-    <mergeCell ref="AV85:AY85"/>
-    <mergeCell ref="AR80:AU80"/>
-    <mergeCell ref="AV80:AY80"/>
-    <mergeCell ref="AR81:AU81"/>
-    <mergeCell ref="AV81:AY81"/>
-    <mergeCell ref="AR82:AU82"/>
-    <mergeCell ref="AV82:AY82"/>
-    <mergeCell ref="AR77:AU77"/>
-    <mergeCell ref="AV77:AY77"/>
-    <mergeCell ref="AR78:AU78"/>
-    <mergeCell ref="AV78:AY78"/>
-    <mergeCell ref="AR79:AU79"/>
-    <mergeCell ref="AV79:AY79"/>
-    <mergeCell ref="AR74:AU74"/>
-    <mergeCell ref="AV74:AY74"/>
-    <mergeCell ref="AR75:AU75"/>
-    <mergeCell ref="AV75:AY75"/>
-    <mergeCell ref="AR76:AU76"/>
-    <mergeCell ref="AV76:AY76"/>
-    <mergeCell ref="AR71:AU71"/>
-    <mergeCell ref="AV71:AY71"/>
-    <mergeCell ref="AR72:AU72"/>
-    <mergeCell ref="AV72:AY72"/>
-    <mergeCell ref="AR73:AU73"/>
-    <mergeCell ref="AV73:AY73"/>
-    <mergeCell ref="AR68:AU68"/>
-    <mergeCell ref="AV68:AY68"/>
-    <mergeCell ref="AR69:AU69"/>
-    <mergeCell ref="AV69:AY69"/>
-    <mergeCell ref="AR70:AU70"/>
-    <mergeCell ref="AV70:AY70"/>
-    <mergeCell ref="AR65:AU65"/>
-    <mergeCell ref="AV65:AY65"/>
-    <mergeCell ref="AR66:AU66"/>
-    <mergeCell ref="AV66:AY66"/>
-    <mergeCell ref="AR67:AU67"/>
-    <mergeCell ref="AV67:AY67"/>
-    <mergeCell ref="AR62:AU62"/>
-    <mergeCell ref="AV62:AY62"/>
-    <mergeCell ref="AR63:AU63"/>
-    <mergeCell ref="AV63:AY63"/>
-    <mergeCell ref="AR64:AU64"/>
-    <mergeCell ref="AV64:AY64"/>
-    <mergeCell ref="AR59:AU59"/>
-    <mergeCell ref="AV59:AY59"/>
-    <mergeCell ref="AR60:AU60"/>
-    <mergeCell ref="AV60:AY60"/>
-    <mergeCell ref="AR61:AU61"/>
-    <mergeCell ref="AV61:AY61"/>
-    <mergeCell ref="AR56:AU56"/>
-    <mergeCell ref="AV56:AY56"/>
-    <mergeCell ref="AR57:AU57"/>
-    <mergeCell ref="AV57:AY57"/>
-    <mergeCell ref="AR58:AU58"/>
-    <mergeCell ref="AV58:AY58"/>
-    <mergeCell ref="AR53:AU53"/>
-    <mergeCell ref="AV53:AY53"/>
-    <mergeCell ref="AR54:AU54"/>
-    <mergeCell ref="AV54:AY54"/>
-    <mergeCell ref="AR55:AU55"/>
-    <mergeCell ref="AV55:AY55"/>
-    <mergeCell ref="AR50:AU50"/>
-    <mergeCell ref="AV50:AY50"/>
-    <mergeCell ref="AR51:AU51"/>
-    <mergeCell ref="AV51:AY51"/>
-    <mergeCell ref="AR52:AU52"/>
-    <mergeCell ref="AV52:AY52"/>
-    <mergeCell ref="AR47:AU47"/>
-    <mergeCell ref="AV47:AY47"/>
-    <mergeCell ref="AR48:AU48"/>
-    <mergeCell ref="AV48:AY48"/>
-    <mergeCell ref="AR49:AU49"/>
-    <mergeCell ref="AV49:AY49"/>
-    <mergeCell ref="AR44:AU44"/>
-    <mergeCell ref="AV44:AY44"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:AY45"/>
-    <mergeCell ref="AR46:AU46"/>
-    <mergeCell ref="AV46:AY46"/>
-    <mergeCell ref="AR42:AU42"/>
-    <mergeCell ref="AV42:AY42"/>
-    <mergeCell ref="AR43:AU43"/>
-    <mergeCell ref="AV43:AY43"/>
-    <mergeCell ref="AR38:AU38"/>
-    <mergeCell ref="AV38:AY38"/>
-    <mergeCell ref="AR39:AU39"/>
-    <mergeCell ref="AV39:AY39"/>
-    <mergeCell ref="AR40:AU40"/>
-    <mergeCell ref="AV40:AY40"/>
-    <mergeCell ref="AR41:AU41"/>
-    <mergeCell ref="AV41:AY41"/>
-    <mergeCell ref="AR34:AU34"/>
-    <mergeCell ref="AV34:AY34"/>
-    <mergeCell ref="AR37:AU37"/>
-    <mergeCell ref="AV37:AY37"/>
-    <mergeCell ref="AR36:AU36"/>
-    <mergeCell ref="AV36:AY36"/>
-    <mergeCell ref="AR35:AU35"/>
-    <mergeCell ref="AV35:AY35"/>
-    <mergeCell ref="AR30:AU30"/>
-    <mergeCell ref="AV30:AY30"/>
-    <mergeCell ref="AR33:AU33"/>
-    <mergeCell ref="AV33:AY33"/>
-    <mergeCell ref="AR31:AU31"/>
-    <mergeCell ref="AV31:AY31"/>
-    <mergeCell ref="AR32:AU32"/>
-    <mergeCell ref="AV32:AY32"/>
-    <mergeCell ref="AR29:AU29"/>
-    <mergeCell ref="AV29:AY29"/>
-    <mergeCell ref="AR26:AU26"/>
-    <mergeCell ref="AV26:AY26"/>
-    <mergeCell ref="AR27:AU27"/>
-    <mergeCell ref="AV27:AY27"/>
-    <mergeCell ref="AR28:AU28"/>
-    <mergeCell ref="AV28:AY28"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:AY23"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:AY24"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:AY25"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AR14:AU14"/>
-    <mergeCell ref="AV14:AY14"/>
-    <mergeCell ref="AR15:AU15"/>
-    <mergeCell ref="AV15:AY15"/>
-    <mergeCell ref="AR16:AU16"/>
-    <mergeCell ref="AV16:AY16"/>
-    <mergeCell ref="AR11:AU11"/>
-    <mergeCell ref="AV11:AY11"/>
-    <mergeCell ref="AR12:AU12"/>
-    <mergeCell ref="AV12:AY12"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:AY13"/>
-    <mergeCell ref="AR8:AU8"/>
-    <mergeCell ref="AV8:AY8"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:AY9"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR6:AU6"/>
-    <mergeCell ref="AV6:AY6"/>
-    <mergeCell ref="AR7:AU7"/>
-    <mergeCell ref="AV7:AY7"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:V4"/>
-    <mergeCell ref="Y4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AR211:AU211"/>
+    <mergeCell ref="AV211:AY211"/>
+    <mergeCell ref="AR212:AU212"/>
+    <mergeCell ref="AV212:AY212"/>
+    <mergeCell ref="AR207:AU207"/>
+    <mergeCell ref="AV207:AY207"/>
+    <mergeCell ref="AR208:AU208"/>
+    <mergeCell ref="AV208:AY208"/>
+    <mergeCell ref="AR209:AU209"/>
+    <mergeCell ref="AV209:AY209"/>
+    <mergeCell ref="AR216:AU216"/>
+    <mergeCell ref="AV216:AY216"/>
+    <mergeCell ref="AR217:AU217"/>
+    <mergeCell ref="AV217:AY217"/>
+    <mergeCell ref="AR218:AU218"/>
+    <mergeCell ref="AV218:AY218"/>
+    <mergeCell ref="AR213:AU213"/>
+    <mergeCell ref="AV213:AY213"/>
+    <mergeCell ref="AR214:AU214"/>
+    <mergeCell ref="AV214:AY214"/>
+    <mergeCell ref="AR215:AU215"/>
+    <mergeCell ref="AV215:AY215"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
